--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>Design prototype, sequence, use case description View business results the week "Room" website</t>
   </si>
   <si>
-    <t>Code Front-end View business results the week "Employees" app</t>
-  </si>
-  <si>
     <t>Code Front-end View details of the weekly business results the "Employees"  app</t>
   </si>
   <si>
@@ -384,12 +381,6 @@
     <t>Test Search and compare business results "Rooms" app</t>
   </si>
   <si>
-    <t>Code Front-end, back-end View business results "Employees" website</t>
-  </si>
-  <si>
-    <t>Code Front-end, back-end View business results the week "Team" website</t>
-  </si>
-  <si>
     <t>Code Front-end, back-end View business results the week "Room" website</t>
   </si>
   <si>
@@ -423,6 +414,15 @@
       </rPr>
       <t>BDS Project</t>
     </r>
+  </si>
+  <si>
+    <t>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</t>
+  </si>
+  <si>
+    <t>Code Front-end View business results the week "Employees" app and "View personal information" app</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1369,7 @@
                   <c:v>Design use case diagram module 3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Code Front-end View business results the week "Employees" app</c:v>
+                  <c:v>Code Front-end View business results the week "Employees" app and "View personal information" app</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Code Front-end View details of the weekly business results the "Employees"  app</c:v>
@@ -1465,10 +1465,10 @@
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Code Front-end, back-end View business results "Employees" website</c:v>
+                  <c:v>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Code Front-end, back-end View business results the week "Team" website</c:v>
+                  <c:v>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>Code Front-end, back-end View business results the week "Room" website</c:v>
@@ -1973,9 +1973,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1997,9 +1995,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2021,9 +2017,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2045,9 +2039,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2069,9 +2061,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2093,9 +2083,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2117,9 +2105,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2141,9 +2127,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2165,9 +2149,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2189,9 +2171,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2213,9 +2193,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2237,9 +2215,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2261,9 +2237,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2285,9 +2259,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2309,9 +2281,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-3439-4363-BD7E-1A05BAB9B14A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2333,9 +2303,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2357,9 +2325,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2381,9 +2347,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2405,9 +2369,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2429,9 +2391,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2453,9 +2413,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2477,9 +2435,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2501,9 +2457,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2525,9 +2479,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2549,9 +2501,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2573,9 +2523,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-63C7-42F2-B7D8-CC115B0EE38E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2597,9 +2545,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2621,9 +2567,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2645,9 +2589,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2669,9 +2611,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2693,9 +2633,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2717,9 +2655,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2741,9 +2677,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2765,9 +2699,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2789,9 +2721,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2813,9 +2743,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2837,9 +2765,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2861,9 +2787,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2885,9 +2809,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2909,9 +2831,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2933,9 +2853,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2957,9 +2875,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2981,9 +2897,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3005,9 +2919,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3029,9 +2941,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3053,9 +2963,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3077,9 +2985,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3101,9 +3007,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3125,9 +3029,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3149,9 +3051,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3173,9 +3073,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3197,9 +3095,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3221,9 +3117,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3245,9 +3139,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3269,9 +3161,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3293,9 +3183,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3317,9 +3205,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-2DA9-4F67-BB25-8D495E507FEB}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3358,7 +3244,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3448,7 +3333,7 @@
                   <c:v>Design use case diagram module 3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Code Front-end View business results the week "Employees" app</c:v>
+                  <c:v>Code Front-end View business results the week "Employees" app and "View personal information" app</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Code Front-end View details of the weekly business results the "Employees"  app</c:v>
@@ -3544,10 +3429,10 @@
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Code Front-end, back-end View business results "Employees" website</c:v>
+                  <c:v>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Code Front-end, back-end View business results the week "Team" website</c:v>
+                  <c:v>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>Code Front-end, back-end View business results the week "Room" website</c:v>
@@ -3872,11 +3757,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="952128688"/>
-        <c:axId val="952119984"/>
+        <c:axId val="-405485904"/>
+        <c:axId val="-405478832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="952128688"/>
+        <c:axId val="-405485904"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3933,7 +3818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="952119984"/>
+        <c:crossAx val="-405478832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3941,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="952119984"/>
+        <c:axId val="-405478832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +3836,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="952128688"/>
+        <c:crossAx val="-405485904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4200,11 +4085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="952121616"/>
-        <c:axId val="952122160"/>
+        <c:axId val="-405487536"/>
+        <c:axId val="-405482640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="952121616"/>
+        <c:axId val="-405487536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4226,7 +4111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="952122160"/>
+        <c:crossAx val="-405482640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4234,7 +4119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="952122160"/>
+        <c:axId val="-405482640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="952121616"/>
+        <c:crossAx val="-405487536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4624,11 +4509,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="832503680"/>
-        <c:axId val="1077637408"/>
+        <c:axId val="-405484272"/>
+        <c:axId val="-405476656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="832503680"/>
+        <c:axId val="-405484272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,7 +4535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1077637408"/>
+        <c:crossAx val="-405476656"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4658,7 +4543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1077637408"/>
+        <c:axId val="-405476656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000"/>
@@ -4683,7 +4568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="832503680"/>
+        <c:crossAx val="-405484272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -5765,7 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
@@ -5781,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
       <c r="A1" s="63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -5917,7 +5802,7 @@
         <v>29</v>
       </c>
       <c r="M5" s="69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N5" s="70"/>
       <c r="O5" s="44"/>
@@ -6169,7 +6054,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -33840,8 +33725,8 @@
   </sheetPr>
   <dimension ref="A2:S147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:F79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -34503,7 +34388,7 @@
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -34529,7 +34414,7 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -34555,7 +34440,7 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>16</v>
@@ -34581,7 +34466,7 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>16</v>
@@ -34607,7 +34492,7 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>16</v>
@@ -34633,7 +34518,7 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>16</v>
@@ -34659,7 +34544,7 @@
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -34685,7 +34570,7 @@
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>16</v>
@@ -34711,7 +34596,7 @@
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>16</v>
@@ -34737,7 +34622,7 @@
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>16</v>
@@ -34763,7 +34648,7 @@
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>16</v>
@@ -34789,7 +34674,7 @@
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -34815,7 +34700,7 @@
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>16</v>
@@ -34841,7 +34726,7 @@
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>16</v>
@@ -34867,7 +34752,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>16</v>
@@ -34893,7 +34778,7 @@
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>16</v>
@@ -34919,7 +34804,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>18</v>
@@ -34945,7 +34830,7 @@
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>18</v>
@@ -34971,7 +34856,7 @@
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>18</v>
@@ -34997,7 +34882,7 @@
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>18</v>
@@ -35023,7 +34908,7 @@
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>18</v>
@@ -35049,7 +34934,7 @@
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>18</v>
@@ -35075,7 +34960,7 @@
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
       <c r="A48" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>18</v>
@@ -35101,7 +34986,7 @@
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>18</v>
@@ -35127,7 +35012,7 @@
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
       <c r="A50" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>18</v>
@@ -35153,7 +35038,7 @@
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="A51" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>18</v>
@@ -35179,7 +35064,7 @@
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
       <c r="A52" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>18</v>
@@ -35205,7 +35090,7 @@
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>18</v>
@@ -35231,7 +35116,7 @@
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
       <c r="A54" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>18</v>
@@ -35257,7 +35142,7 @@
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1">
       <c r="A55" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>18</v>
@@ -35283,7 +35168,7 @@
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
       <c r="A56" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>18</v>
@@ -35309,7 +35194,7 @@
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
       <c r="A57" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>18</v>
@@ -35335,7 +35220,7 @@
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
       <c r="A58" s="29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>19</v>
@@ -35361,7 +35246,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>41</v>
@@ -35387,7 +35272,7 @@
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>19</v>
@@ -35413,7 +35298,7 @@
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
       <c r="A61" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>20</v>
@@ -35441,7 +35326,7 @@
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
       <c r="A62" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>20</v>
@@ -35469,7 +35354,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1">
       <c r="A63" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>20</v>
@@ -35497,7 +35382,7 @@
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1">
       <c r="A64" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>20</v>
@@ -35525,7 +35410,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1">
       <c r="A65" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>20</v>
@@ -35553,7 +35438,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1">
       <c r="A66" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="27" t="s">
         <v>20</v>
@@ -35581,7 +35466,7 @@
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">
       <c r="A67" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="27" t="s">
         <v>20</v>
@@ -35609,7 +35494,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1">
       <c r="A68" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="27" t="s">
         <v>20</v>
@@ -35637,7 +35522,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1">
       <c r="A69" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="27" t="s">
         <v>20</v>
@@ -35665,7 +35550,7 @@
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1">
       <c r="A70" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>20</v>
@@ -35693,7 +35578,7 @@
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>20</v>
@@ -35721,7 +35606,7 @@
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1">
       <c r="A72" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>20</v>
@@ -35749,7 +35634,7 @@
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1">
       <c r="A73" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>20</v>
@@ -35777,7 +35662,7 @@
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1">
       <c r="A74" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>20</v>
@@ -35805,7 +35690,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1">
       <c r="A75" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>20</v>
@@ -35833,7 +35718,7 @@
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1">
       <c r="A76" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="27" t="s">
         <v>20</v>
@@ -35861,7 +35746,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="A77" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>20</v>
@@ -35889,7 +35774,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="A78" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B78" s="27" t="s">
         <v>20</v>
@@ -35917,7 +35802,7 @@
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1">
       <c r="A79" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>20</v>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -186,9 +186,6 @@
     <t>Design prototype, sequence, use case description Search business results graph "Room" app</t>
   </si>
   <si>
-    <t>Design prototype, sequence, use case description Search and compare business results "Employees" app</t>
-  </si>
-  <si>
     <t>Design prototype, sequence, use case description View compare business results "Employees"</t>
   </si>
   <si>
@@ -213,13 +210,7 @@
     <t>Design prototype, sequence, use case description View business results the week "Employees" app</t>
   </si>
   <si>
-    <t>Design prototype, sequence, use case description Search and compare business results "Team" app</t>
-  </si>
-  <si>
     <t>Design prototype, sequence, use case description View compare business results "Rooms" app</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description Search and compare business results "Rooms" app</t>
   </si>
   <si>
     <t>Design messages list module 3</t>
@@ -423,6 +414,15 @@
   </si>
   <si>
     <t>Code Front-end View business results the week "Employees" app and "View personal information" app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Search compare business results "Employees" app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Search compare business results "Team" app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Search compare business results "Rooms" app</t>
   </si>
 </sst>
 </file>
@@ -1336,19 +1336,19 @@
                   <c:v>Design prototype, sequence, use case description View compare business results "Employees"</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design prototype, sequence, use case description Search and compare business results "Employees" app</c:v>
+                  <c:v>Design prototype, sequence, use case description Search compare business results "Employees" app</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Design prototype, sequence, use case description View the business results "Team" app</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Design prototype, sequence, use case description Search and compare business results "Team" app</c:v>
+                  <c:v>Design prototype, sequence, use case description Search compare business results "Team" app</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Design prototype, sequence, use case description View compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Design prototype, sequence, use case description Search and compare business results "Rooms" app</c:v>
+                  <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Design prototype, sequence, use case description View business results "Employees" website</c:v>
@@ -3300,19 +3300,19 @@
                   <c:v>Design prototype, sequence, use case description View compare business results "Employees"</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Design prototype, sequence, use case description Search and compare business results "Employees" app</c:v>
+                  <c:v>Design prototype, sequence, use case description Search compare business results "Employees" app</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Design prototype, sequence, use case description View the business results "Team" app</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Design prototype, sequence, use case description Search and compare business results "Team" app</c:v>
+                  <c:v>Design prototype, sequence, use case description Search compare business results "Team" app</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Design prototype, sequence, use case description View compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Design prototype, sequence, use case description Search and compare business results "Rooms" app</c:v>
+                  <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Design prototype, sequence, use case description View business results "Employees" website</c:v>
@@ -3757,11 +3757,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="-405485904"/>
-        <c:axId val="-405478832"/>
+        <c:axId val="1475966048"/>
+        <c:axId val="1475970944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-405485904"/>
+        <c:axId val="1475966048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3818,7 +3818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-405478832"/>
+        <c:crossAx val="1475970944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3826,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-405478832"/>
+        <c:axId val="1475970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +3836,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-405485904"/>
+        <c:crossAx val="1475966048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4085,11 +4085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-405487536"/>
-        <c:axId val="-405482640"/>
+        <c:axId val="1424384304"/>
+        <c:axId val="1424377776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-405487536"/>
+        <c:axId val="1424384304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,7 +4111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-405482640"/>
+        <c:crossAx val="1424377776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4119,7 +4119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-405482640"/>
+        <c:axId val="1424377776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-405487536"/>
+        <c:crossAx val="1424384304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4509,11 +4509,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-405484272"/>
-        <c:axId val="-405476656"/>
+        <c:axId val="1650020064"/>
+        <c:axId val="1650017344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-405484272"/>
+        <c:axId val="1650020064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-405476656"/>
+        <c:crossAx val="1650017344"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4543,7 +4543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-405476656"/>
+        <c:axId val="1650017344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000"/>
@@ -4568,7 +4568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-405484272"/>
+        <c:crossAx val="1650020064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -5666,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
       <c r="A1" s="63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -5802,7 +5802,7 @@
         <v>29</v>
       </c>
       <c r="M5" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N5" s="70"/>
       <c r="O5" s="44"/>
@@ -6054,7 +6054,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -33725,8 +33725,8 @@
   </sheetPr>
   <dimension ref="A2:S147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33778,7 +33778,7 @@
     </row>
     <row r="4" spans="1:9" ht="24">
       <c r="A4" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>17</v>
@@ -33806,7 +33806,7 @@
     </row>
     <row r="5" spans="1:9" ht="24">
       <c r="A5" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>17</v>
@@ -33834,7 +33834,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
@@ -33862,7 +33862,7 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>17</v>
@@ -33890,7 +33890,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>17</v>
@@ -34002,7 +34002,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>17</v>
@@ -34058,7 +34058,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>17</v>
@@ -34086,7 +34086,7 @@
     </row>
     <row r="15" spans="1:9" ht="24">
       <c r="A15" s="28" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>17</v>
@@ -34114,7 +34114,7 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>17</v>
@@ -34142,7 +34142,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>17</v>
@@ -34170,7 +34170,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>17</v>
@@ -34198,7 +34198,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>17</v>
@@ -34226,7 +34226,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>17</v>
@@ -34254,7 +34254,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -34282,7 +34282,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>17</v>
@@ -34310,7 +34310,7 @@
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>17</v>
@@ -34336,7 +34336,7 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>17</v>
@@ -34362,7 +34362,7 @@
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1">
       <c r="A25" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>17</v>
@@ -34388,7 +34388,7 @@
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -34414,7 +34414,7 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>16</v>
@@ -34440,7 +34440,7 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>16</v>
@@ -34466,7 +34466,7 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>16</v>
@@ -34492,7 +34492,7 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>16</v>
@@ -34518,7 +34518,7 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>16</v>
@@ -34544,7 +34544,7 @@
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>16</v>
@@ -34570,7 +34570,7 @@
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>16</v>
@@ -34596,7 +34596,7 @@
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>16</v>
@@ -34622,7 +34622,7 @@
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>16</v>
@@ -34648,7 +34648,7 @@
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>16</v>
@@ -34674,7 +34674,7 @@
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>16</v>
@@ -34700,7 +34700,7 @@
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>16</v>
@@ -34726,7 +34726,7 @@
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>16</v>
@@ -34752,7 +34752,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>16</v>
@@ -34778,7 +34778,7 @@
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>16</v>
@@ -34804,7 +34804,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>18</v>
@@ -34830,7 +34830,7 @@
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>18</v>
@@ -34856,7 +34856,7 @@
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>18</v>
@@ -34882,7 +34882,7 @@
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>18</v>
@@ -34908,7 +34908,7 @@
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>18</v>
@@ -34934,7 +34934,7 @@
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>18</v>
@@ -34960,7 +34960,7 @@
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
       <c r="A48" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>18</v>
@@ -34986,7 +34986,7 @@
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>18</v>
@@ -35012,7 +35012,7 @@
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
       <c r="A50" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>18</v>
@@ -35038,7 +35038,7 @@
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
       <c r="A51" s="29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>18</v>
@@ -35064,7 +35064,7 @@
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
       <c r="A52" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>18</v>
@@ -35090,7 +35090,7 @@
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1">
       <c r="A53" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>18</v>
@@ -35116,7 +35116,7 @@
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
       <c r="A54" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>18</v>
@@ -35142,7 +35142,7 @@
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1">
       <c r="A55" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>18</v>
@@ -35168,7 +35168,7 @@
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
       <c r="A56" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>18</v>
@@ -35194,7 +35194,7 @@
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1">
       <c r="A57" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>18</v>
@@ -35220,7 +35220,7 @@
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
       <c r="A58" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>19</v>
@@ -35246,7 +35246,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>41</v>
@@ -35272,7 +35272,7 @@
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>19</v>
@@ -35298,7 +35298,7 @@
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
       <c r="A61" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>20</v>
@@ -35326,7 +35326,7 @@
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
       <c r="A62" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>20</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1">
       <c r="A63" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>20</v>
@@ -35382,7 +35382,7 @@
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1">
       <c r="A64" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>20</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1">
       <c r="A65" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B65" s="27" t="s">
         <v>20</v>
@@ -35438,7 +35438,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1">
       <c r="A66" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B66" s="27" t="s">
         <v>20</v>
@@ -35466,7 +35466,7 @@
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1">
       <c r="A67" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B67" s="27" t="s">
         <v>20</v>
@@ -35494,7 +35494,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1">
       <c r="A68" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B68" s="27" t="s">
         <v>20</v>
@@ -35522,7 +35522,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1">
       <c r="A69" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B69" s="27" t="s">
         <v>20</v>
@@ -35550,7 +35550,7 @@
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1">
       <c r="A70" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70" s="27" t="s">
         <v>20</v>
@@ -35578,7 +35578,7 @@
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B71" s="27" t="s">
         <v>20</v>
@@ -35606,7 +35606,7 @@
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1">
       <c r="A72" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>20</v>
@@ -35634,7 +35634,7 @@
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1">
       <c r="A73" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>20</v>
@@ -35662,7 +35662,7 @@
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1">
       <c r="A74" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B74" s="27" t="s">
         <v>20</v>
@@ -35690,7 +35690,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1">
       <c r="A75" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>20</v>
@@ -35718,7 +35718,7 @@
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1">
       <c r="A76" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B76" s="27" t="s">
         <v>20</v>
@@ -35746,7 +35746,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="A77" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>20</v>
@@ -35774,7 +35774,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="A78" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B78" s="27" t="s">
         <v>20</v>
@@ -35802,7 +35802,7 @@
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1">
       <c r="A79" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>20</v>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7617996-066B-4DEE-9D4B-375B03CFEBBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE911C6-3D0E-42C6-9565-4D91D748E3C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Số ngày (ngày)</t>
-  </si>
-  <si>
-    <t>Tổng thời gian = 104 ngày</t>
   </si>
   <si>
     <t>Cao</t>
@@ -221,15 +218,6 @@
   </si>
   <si>
     <t>Design use case diagram module 3</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results "Employees" website</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results the week "Team" website</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results the week "Room" website</t>
   </si>
   <si>
     <t>Code Front-end View details of the weekly business results the "Employees"  app</t>
@@ -373,18 +361,6 @@
     <t>Test Search and compare business results "Rooms" app</t>
   </si>
   <si>
-    <t>Code Front-end, back-end View business results the week "Room" website</t>
-  </si>
-  <si>
-    <t>Test View business results "Employees" website</t>
-  </si>
-  <si>
-    <t>Test View business results the week "Team" website</t>
-  </si>
-  <si>
-    <t>Test View business results the week "Room" website</t>
-  </si>
-  <si>
     <t>Schedule module 3</t>
   </si>
   <si>
@@ -408,12 +384,6 @@
     </r>
   </si>
   <si>
-    <t>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</t>
-  </si>
-  <si>
-    <t>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</t>
-  </si>
-  <si>
     <t>Code Front-end View business results the week "Employees" app and "View personal information" app</t>
   </si>
   <si>
@@ -427,6 +397,39 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Test View business results View statistic - report</t>
+  </si>
+  <si>
+    <t>Code Front-end View personal information app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View personal information app</t>
+  </si>
+  <si>
+    <t>Code Back-end View personal information app</t>
+  </si>
+  <si>
+    <t>Test  Import file website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  Import file website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  View statistic - report website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Forgot password" website</t>
+  </si>
+  <si>
+    <t>Test View personal information app and "Forgot password" website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Import file website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View statistic - report website</t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1150,27 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,27 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,9 +1352,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$80</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$82</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description View business results the week "Employees" app</c:v>
                 </c:pt>
@@ -1401,13 +1404,13 @@
                   <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Design prototype, sequence, use case description View business results "Employees" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View statistic - report website</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Team" website</c:v>
+                  <c:v>Design prototype, sequence, use case description Import file website</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Room" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Design messages list module 3</c:v>
@@ -1467,128 +1470,134 @@
                   <c:v>Code Front-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>Code Front-end View personal information app</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>Code Back-end View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>Code Back-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Code Back-end View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Code Back-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>Code Back-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>Code Back-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>Code Back-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>Code Back-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>Code Back-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>Code Back-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>Code Back-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>Code Back-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>Code Back-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>Code Back-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>Code Back-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</c:v>
+                  <c:v>Code Back-end View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Code Front-end, back-end View business results the week "Room" website</c:v>
+                  <c:v>Code Front-end, back-end  "Forgot password" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>Code Front-end, back-end  View statistic - report website</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Code Front-end, back-end  Import file website</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>Test View business results "Employees" website</c:v>
+                <c:pt idx="75">
+                  <c:v>Test View business results View statistic - report</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>Test View business results the week "Team" website</c:v>
+                <c:pt idx="76">
+                  <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>Test View business results the week "Room" website</c:v>
+                <c:pt idx="77">
+                  <c:v>Test View personal information app and "Forgot password" website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$D$4:$D$80</c:f>
+              <c:f>'Dữ liệu dự án'!$D$4:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43927</c:v>
                 </c:pt>
@@ -1704,117 +1713,123 @@
                   <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>43962</c:v>
                 </c:pt>
               </c:numCache>
@@ -3310,9 +3325,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$80</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$82</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description View business results the week "Employees" app</c:v>
                 </c:pt>
@@ -3362,13 +3377,13 @@
                   <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Design prototype, sequence, use case description View business results "Employees" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View statistic - report website</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Team" website</c:v>
+                  <c:v>Design prototype, sequence, use case description Import file website</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Room" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Design messages list module 3</c:v>
@@ -3428,128 +3443,134 @@
                   <c:v>Code Front-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>Code Front-end View personal information app</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>Code Back-end View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>Code Back-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Code Back-end View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Code Back-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>Code Back-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>Code Back-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>Code Back-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>Code Back-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>Code Back-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>Code Back-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>Code Back-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>Code Back-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>Code Back-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>Code Back-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>Code Back-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</c:v>
+                  <c:v>Code Back-end View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Code Front-end, back-end View business results the week "Room" website</c:v>
+                  <c:v>Code Front-end, back-end  "Forgot password" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>Code Front-end, back-end  View statistic - report website</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Code Front-end, back-end  Import file website</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>Test View business results "Employees" website</c:v>
+                <c:pt idx="75">
+                  <c:v>Test View business results View statistic - report</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>Test View business results the week "Team" website</c:v>
+                <c:pt idx="76">
+                  <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>Test View business results the week "Room" website</c:v>
+                <c:pt idx="77">
+                  <c:v>Test View personal information app and "Forgot password" website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$F$4:$F$80</c:f>
+              <c:f>'Dữ liệu dự án'!$F$4:$F$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3665,7 +3686,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
@@ -3686,49 +3707,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
@@ -3737,7 +3758,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>1</c:v>
@@ -3761,7 +3782,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1</c:v>
@@ -3779,7 +3800,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4069,7 +4096,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$97:$B$101</c:f>
+              <c:f>'Dữ liệu dự án'!$B$99:$B$103</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4092,7 +4119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$97:$C$101</c:f>
+              <c:f>'Dữ liệu dự án'!$C$99:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4322,7 +4349,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$85:$B$88</c:f>
+              <c:f>'Dữ liệu dự án'!$B$87:$B$90</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4342,7 +4369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$85:$C$88</c:f>
+              <c:f>'Dữ liệu dự án'!$C$87:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4516,7 +4543,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$92:$B$93</c:f>
+              <c:f>'Dữ liệu dự án'!$B$94:$B$95</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4530,7 +4557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$92:$C$93</c:f>
+              <c:f>'Dữ liệu dự án'!$C$94:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5709,18 +5736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="A1" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -5739,16 +5766,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -5767,24 +5794,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="66"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -5799,24 +5826,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -5831,24 +5858,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" s="66"/>
+        <v>28</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="73"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -5863,24 +5890,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="66"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -5895,24 +5922,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="67">
+        <v>31</v>
+      </c>
+      <c r="M7" s="74">
         <v>43556</v>
       </c>
-      <c r="N7" s="68"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -5927,16 +5954,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -5955,16 +5982,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -5983,16 +6010,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -6011,23 +6038,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="L11" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -6041,28 +6068,28 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="N12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>36</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>37</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -6077,28 +6104,28 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="45">
         <v>43556</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -6113,16 +6140,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -6141,16 +6168,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -6169,16 +6196,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -6197,16 +6224,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -6225,16 +6252,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -6253,16 +6280,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -6281,16 +6308,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -33767,15 +33794,15 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:T147"/>
+  <dimension ref="A2:T149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="72"/>
+    <col min="1" max="1" width="11" style="59"/>
     <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
@@ -33793,10 +33820,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -33815,21 +33842,21 @@
         <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24">
-      <c r="A4" s="78">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>53</v>
+      <c r="B4" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
@@ -33841,7 +33868,7 @@
         <v>43928</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" ref="F4:F67" si="0">E4-D4</f>
+        <f t="shared" ref="F4:F69" si="0">E4-D4</f>
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -33851,16 +33878,16 @@
         <v>18</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="24">
-      <c r="A5" s="78">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>52</v>
+      <c r="B5" s="61" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
@@ -33882,16 +33909,16 @@
         <v>18</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="78">
+      <c r="A6" s="65">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>50</v>
+      <c r="B6" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
@@ -33913,16 +33940,16 @@
         <v>18</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="78">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>51</v>
+      <c r="B7" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
@@ -33944,16 +33971,16 @@
         <v>18</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="78">
+      <c r="A8" s="65">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>49</v>
+      <c r="B8" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
@@ -33975,16 +34002,16 @@
         <v>18</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="78">
+      <c r="A9" s="65">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
-        <v>42</v>
+      <c r="B9" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>17</v>
@@ -34006,16 +34033,16 @@
         <v>18</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="78">
+      <c r="A10" s="65">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>43</v>
+      <c r="B10" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -34037,16 +34064,16 @@
         <v>18</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="78">
+      <c r="A11" s="65">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>44</v>
+      <c r="B11" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>17</v>
@@ -34068,16 +34095,16 @@
         <v>18</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="78">
+      <c r="A12" s="65">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>47</v>
+      <c r="B12" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>17</v>
@@ -34099,16 +34126,16 @@
         <v>18</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="78">
+      <c r="A13" s="65">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>45</v>
+      <c r="B13" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
@@ -34130,16 +34157,16 @@
         <v>18</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="78">
+      <c r="A14" s="65">
         <v>11</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>46</v>
+      <c r="B14" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>17</v>
@@ -34161,16 +34188,16 @@
         <v>18</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="24">
-      <c r="A15" s="78">
+      <c r="A15" s="65">
         <v>12</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>118</v>
+      <c r="B15" s="61" t="s">
+        <v>108</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
@@ -34192,16 +34219,16 @@
         <v>18</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="78">
+      <c r="A16" s="65">
         <v>13</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>48</v>
+      <c r="B16" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
@@ -34223,16 +34250,16 @@
         <v>18</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="78">
+      <c r="A17" s="65">
         <v>14</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>119</v>
+      <c r="B17" s="61" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>17</v>
@@ -34254,16 +34281,16 @@
         <v>18</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="78">
+      <c r="A18" s="65">
         <v>15</v>
       </c>
-      <c r="B18" s="74" t="s">
-        <v>54</v>
+      <c r="B18" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
@@ -34285,16 +34312,16 @@
         <v>18</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="78">
+      <c r="A19" s="65">
         <v>16</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>120</v>
+      <c r="B19" s="61" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
@@ -34316,16 +34343,16 @@
         <v>18</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="78">
+      <c r="A20" s="65">
         <v>17</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>58</v>
+      <c r="B20" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
@@ -34347,16 +34374,16 @@
         <v>18</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="78">
+      <c r="A21" s="65">
         <v>18</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>59</v>
+      <c r="B21" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
@@ -34378,16 +34405,16 @@
         <v>18</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="78">
+      <c r="A22" s="65">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>60</v>
+      <c r="B22" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
@@ -34409,16 +34436,16 @@
         <v>18</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="78">
+      <c r="A23" s="65">
         <v>20</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>55</v>
+      <c r="B23" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
@@ -34438,16 +34465,16 @@
         <v>27</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="78">
+      <c r="A24" s="65">
         <v>21</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>56</v>
+      <c r="B24" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
@@ -34467,16 +34494,16 @@
         <v>27</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="78">
+      <c r="A25" s="65">
         <v>22</v>
       </c>
-      <c r="B25" s="74" t="s">
-        <v>57</v>
+      <c r="B25" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
@@ -34496,16 +34523,16 @@
         <v>27</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="78">
+      <c r="A26" s="65">
         <v>23</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>117</v>
+      <c r="B26" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>16</v>
@@ -34525,16 +34552,16 @@
         <v>18</v>
       </c>
       <c r="I26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A27" s="65">
         <v>24</v>
       </c>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="78">
-        <v>24</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>61</v>
+      <c r="B27" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>16</v>
@@ -34554,16 +34581,16 @@
         <v>18</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A28" s="78">
+      <c r="A28" s="65">
         <v>25</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>62</v>
+      <c r="B28" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>16</v>
@@ -34583,16 +34610,16 @@
         <v>18</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A29" s="78">
+      <c r="A29" s="65">
         <v>26</v>
       </c>
-      <c r="B29" s="75" t="s">
-        <v>66</v>
+      <c r="B29" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
@@ -34612,16 +34639,16 @@
         <v>18</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A30" s="78">
+      <c r="A30" s="65">
         <v>27</v>
       </c>
-      <c r="B30" s="75" t="s">
-        <v>72</v>
+      <c r="B30" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
@@ -34641,16 +34668,16 @@
         <v>18</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="78">
+      <c r="A31" s="65">
         <v>28</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>75</v>
+      <c r="B31" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>16</v>
@@ -34670,16 +34697,16 @@
         <v>18</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A32" s="78">
+      <c r="A32" s="65">
         <v>29</v>
       </c>
-      <c r="B32" s="75" t="s">
-        <v>78</v>
+      <c r="B32" s="62" t="s">
+        <v>74</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>16</v>
@@ -34699,16 +34726,16 @@
         <v>18</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="78">
+      <c r="A33" s="65">
         <v>30</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>81</v>
+      <c r="B33" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>16</v>
@@ -34728,16 +34755,16 @@
         <v>27</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="78">
+      <c r="A34" s="65">
         <v>31</v>
       </c>
-      <c r="B34" s="75" t="s">
-        <v>84</v>
+      <c r="B34" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>16</v>
@@ -34757,16 +34784,16 @@
         <v>18</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="78">
+      <c r="A35" s="65">
         <v>32</v>
       </c>
-      <c r="B35" s="75" t="s">
-        <v>87</v>
+      <c r="B35" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>16</v>
@@ -34786,16 +34813,16 @@
         <v>27</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A36" s="78">
+      <c r="A36" s="65">
         <v>33</v>
       </c>
-      <c r="B36" s="75" t="s">
-        <v>90</v>
+      <c r="B36" s="62" t="s">
+        <v>86</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>16</v>
@@ -34815,16 +34842,16 @@
         <v>18</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="78">
+      <c r="A37" s="65">
         <v>34</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>93</v>
+      <c r="B37" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>16</v>
@@ -34844,16 +34871,16 @@
         <v>27</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A38" s="78">
+      <c r="A38" s="65">
         <v>35</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>96</v>
+      <c r="B38" s="62" t="s">
+        <v>92</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>16</v>
@@ -34873,16 +34900,16 @@
         <v>18</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A39" s="78">
+      <c r="A39" s="65">
         <v>36</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>99</v>
+      <c r="B39" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>16</v>
@@ -34902,16 +34929,16 @@
         <v>27</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A40" s="78">
+      <c r="A40" s="65">
         <v>37</v>
       </c>
-      <c r="B40" s="75" t="s">
-        <v>102</v>
+      <c r="B40" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>16</v>
@@ -34931,16 +34958,16 @@
         <v>18</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A41" s="78">
+      <c r="A41" s="65">
         <v>38</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>105</v>
+      <c r="B41" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>16</v>
@@ -34952,7 +34979,7 @@
         <v>43957</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F41" si="1">E41-D41</f>
         <v>2</v>
       </c>
       <c r="G41" s="11"/>
@@ -34960,54 +34987,54 @@
         <v>27</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A42" s="78">
+      <c r="A42" s="65">
         <v>39</v>
       </c>
-      <c r="B42" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>18</v>
+      <c r="B42" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="10">
-        <v>43922</v>
+        <v>43955</v>
       </c>
       <c r="E42" s="10">
-        <v>43923</v>
+        <v>43957</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A43" s="78">
+      <c r="A43" s="65">
         <v>40</v>
       </c>
-      <c r="B43" s="75" t="s">
-        <v>64</v>
+      <c r="B43" s="62" t="s">
+        <v>59</v>
       </c>
       <c r="C43" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="10">
+        <v>43922</v>
+      </c>
+      <c r="E43" s="10">
         <v>43923</v>
-      </c>
-      <c r="E43" s="10">
-        <v>43924</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="0"/>
@@ -35018,25 +35045,25 @@
         <v>18</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A44" s="78">
+      <c r="A44" s="65">
         <v>41</v>
       </c>
-      <c r="B44" s="75" t="s">
-        <v>65</v>
+      <c r="B44" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="E44" s="10">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="0"/>
@@ -35047,25 +35074,25 @@
         <v>18</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A45" s="78">
+      <c r="A45" s="65">
         <v>42</v>
       </c>
-      <c r="B45" s="75" t="s">
-        <v>67</v>
+      <c r="B45" s="62" t="s">
+        <v>61</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10">
+        <v>43927</v>
+      </c>
+      <c r="E45" s="10">
         <v>43928</v>
-      </c>
-      <c r="E45" s="10">
-        <v>43929</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="0"/>
@@ -35076,25 +35103,25 @@
         <v>18</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A46" s="78">
+      <c r="A46" s="65">
         <v>43</v>
       </c>
-      <c r="B46" s="75" t="s">
-        <v>73</v>
+      <c r="B46" s="62" t="s">
+        <v>63</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="10">
+        <v>43928</v>
+      </c>
+      <c r="E46" s="10">
         <v>43929</v>
-      </c>
-      <c r="E46" s="10">
-        <v>43930</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="0"/>
@@ -35105,25 +35132,25 @@
         <v>18</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A47" s="78">
+      <c r="A47" s="65">
         <v>44</v>
       </c>
-      <c r="B47" s="75" t="s">
-        <v>76</v>
+      <c r="B47" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="10">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="E47" s="10">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="0"/>
@@ -35134,25 +35161,25 @@
         <v>18</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A48" s="78">
+      <c r="A48" s="65">
         <v>45</v>
       </c>
-      <c r="B48" s="75" t="s">
-        <v>79</v>
+      <c r="B48" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="10">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="E48" s="10">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="0"/>
@@ -35163,466 +35190,462 @@
         <v>18</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A49" s="78">
+      <c r="A49" s="65">
         <v>46</v>
       </c>
-      <c r="B49" s="75" t="s">
-        <v>82</v>
+      <c r="B49" s="62" t="s">
+        <v>75</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="10">
+        <v>43934</v>
+      </c>
+      <c r="E49" s="10">
         <v>43935</v>
-      </c>
-      <c r="E49" s="10">
-        <v>43937</v>
       </c>
       <c r="F49" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A50" s="78">
+      <c r="A50" s="65">
         <v>47</v>
       </c>
-      <c r="B50" s="75" t="s">
-        <v>85</v>
+      <c r="B50" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="10">
+        <v>43935</v>
+      </c>
+      <c r="E50" s="10">
         <v>43937</v>
-      </c>
-      <c r="E50" s="10">
-        <v>43938</v>
       </c>
       <c r="F50" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A51" s="78">
+      <c r="A51" s="65">
         <v>48</v>
       </c>
-      <c r="B51" s="75" t="s">
-        <v>88</v>
+      <c r="B51" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10">
-        <v>43941</v>
+        <v>43937</v>
       </c>
       <c r="E51" s="10">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="F51" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A52" s="78">
+      <c r="A52" s="65">
         <v>49</v>
       </c>
-      <c r="B52" s="75" t="s">
-        <v>91</v>
+      <c r="B52" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="10">
+        <v>43941</v>
+      </c>
+      <c r="E52" s="10">
         <v>43943</v>
-      </c>
-      <c r="E52" s="10">
-        <v>43944</v>
       </c>
       <c r="F52" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A53" s="78">
+      <c r="A53" s="65">
         <v>50</v>
       </c>
-      <c r="B53" s="75" t="s">
-        <v>94</v>
+      <c r="B53" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="10">
+        <v>43943</v>
+      </c>
+      <c r="E53" s="10">
         <v>43944</v>
-      </c>
-      <c r="E53" s="10">
-        <v>43946</v>
       </c>
       <c r="F53" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A54" s="78">
+      <c r="A54" s="65">
         <v>51</v>
       </c>
-      <c r="B54" s="75" t="s">
-        <v>97</v>
+      <c r="B54" s="62" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="10">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="E54" s="10">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="F54" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A55" s="78">
+      <c r="A55" s="65">
         <v>52</v>
       </c>
-      <c r="B55" s="75" t="s">
-        <v>100</v>
+      <c r="B55" s="62" t="s">
+        <v>93</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="10">
+        <v>43948</v>
+      </c>
+      <c r="E55" s="10">
         <v>43949</v>
-      </c>
-      <c r="E55" s="10">
-        <v>43951</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A56" s="78">
+      <c r="A56" s="65">
         <v>53</v>
       </c>
-      <c r="B56" s="75" t="s">
-        <v>103</v>
+      <c r="B56" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="10">
+        <v>43949</v>
+      </c>
+      <c r="E56" s="10">
         <v>43951</v>
-      </c>
-      <c r="E56" s="10">
-        <v>43952</v>
       </c>
       <c r="F56" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A57" s="78">
+      <c r="A57" s="65">
         <v>54</v>
       </c>
-      <c r="B57" s="75" t="s">
-        <v>106</v>
+      <c r="B57" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="10">
-        <v>43955</v>
+        <v>43951</v>
       </c>
       <c r="E57" s="10">
-        <v>43957</v>
+        <v>43952</v>
       </c>
       <c r="F57" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A58" s="78">
+      <c r="A58" s="65">
         <v>55</v>
       </c>
-      <c r="B58" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>19</v>
+      <c r="B58" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D58" s="10">
-        <v>43922</v>
+        <v>43955</v>
       </c>
       <c r="E58" s="10">
-        <v>43931</v>
+        <v>43957</v>
       </c>
       <c r="F58" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="23">
+        <v>27</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A59" s="65">
+        <v>56</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="10">
+        <v>43955</v>
+      </c>
+      <c r="E59" s="10">
+        <v>43957</v>
+      </c>
+      <c r="F59" s="24">
+        <f t="shared" ref="F59" si="2">E59-D59</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="23">
+        <v>27</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="65">
+        <v>57</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="10">
+        <v>43922</v>
+      </c>
+      <c r="E60" s="10">
+        <v>43931</v>
+      </c>
+      <c r="F60" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="23">
         <v>72</v>
       </c>
-      <c r="I58" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="78">
-        <v>56</v>
-      </c>
-      <c r="B59" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="I60" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="65">
+        <v>58</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="10">
         <v>43934</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E61" s="10">
         <v>43945</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F61" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="23">
+      <c r="G61" s="11"/>
+      <c r="H61" s="23">
         <v>88</v>
       </c>
-      <c r="I59" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="78">
-        <v>57</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="I61" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1">
+      <c r="A62" s="65">
+        <v>59</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D62" s="10">
         <v>43948</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E62" s="10">
         <v>43959</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F62" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="23">
+      <c r="G62" s="11"/>
+      <c r="H62" s="23">
         <v>88</v>
       </c>
-      <c r="I60" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="78">
-        <v>58</v>
-      </c>
-      <c r="B61" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="26" t="s">
+      <c r="I62" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1">
+      <c r="A63" s="65">
+        <v>60</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D63" s="10">
         <v>43922</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E63" s="10">
         <v>43924</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F63" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
-        <v>27</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="78">
-        <v>59</v>
-      </c>
-      <c r="B62" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="10">
-        <v>43927</v>
-      </c>
-      <c r="E62" s="10">
-        <v>43928</v>
-      </c>
-      <c r="F62" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
-        <v>18</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="78">
-        <v>60</v>
-      </c>
-      <c r="B63" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="10">
-        <v>43929</v>
-      </c>
-      <c r="E63" s="10">
-        <v>43930</v>
-      </c>
-      <c r="F63" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="G63" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H63" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J63" s="23"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="78">
+      <c r="A64" s="65">
         <v>61</v>
       </c>
-      <c r="B64" s="76" t="s">
-        <v>71</v>
+      <c r="B64" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="10">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="E64" s="10">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="F64" s="24">
         <f t="shared" si="0"/>
@@ -35635,25 +35658,25 @@
         <v>18</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J64" s="23"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65" s="78">
+      <c r="A65" s="65">
         <v>62</v>
       </c>
-      <c r="B65" s="76" t="s">
-        <v>74</v>
+      <c r="B65" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="10">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="E65" s="10">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="F65" s="24">
         <f t="shared" si="0"/>
@@ -35666,56 +35689,56 @@
         <v>18</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" s="23"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66" s="78">
+      <c r="A66" s="65">
         <v>63</v>
       </c>
-      <c r="B66" s="76" t="s">
-        <v>77</v>
+      <c r="B66" s="63" t="s">
+        <v>67</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="10">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="E66" s="10">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="F66" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1">
-      <c r="A67" s="78">
+      <c r="A67" s="65">
         <v>64</v>
       </c>
-      <c r="B67" s="76" t="s">
-        <v>80</v>
+      <c r="B67" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="10">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="E67" s="10">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="F67" s="24">
         <f t="shared" si="0"/>
@@ -35728,28 +35751,28 @@
         <v>18</v>
       </c>
       <c r="I67" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1">
-      <c r="A68" s="78">
+      <c r="A68" s="65">
         <v>65</v>
       </c>
-      <c r="B68" s="76" t="s">
-        <v>83</v>
+      <c r="B68" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="10">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="E68" s="10">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="F68" s="24">
-        <f t="shared" ref="F68:F79" si="1">E68-D68</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G68" s="11" t="s">
@@ -35759,28 +35782,28 @@
         <v>27</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J68" s="23"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1">
-      <c r="A69" s="78">
+      <c r="A69" s="65">
         <v>66</v>
       </c>
-      <c r="B69" s="76" t="s">
-        <v>86</v>
+      <c r="B69" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="10">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="E69" s="10">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="F69" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G69" s="11" t="s">
@@ -35790,28 +35813,28 @@
         <v>18</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1">
-      <c r="A70" s="78">
+      <c r="A70" s="65">
         <v>67</v>
       </c>
-      <c r="B70" s="76" t="s">
-        <v>89</v>
+      <c r="B70" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="10">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="E70" s="10">
-        <v>43946</v>
+        <v>43941</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F70:F81" si="3">E70-D70</f>
         <v>2</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -35821,28 +35844,28 @@
         <v>27</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1">
-      <c r="A71" s="78">
+      <c r="A71" s="65">
         <v>68</v>
       </c>
-      <c r="B71" s="76" t="s">
-        <v>92</v>
+      <c r="B71" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="10">
-        <v>43948</v>
+        <v>43942</v>
       </c>
       <c r="E71" s="10">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="F71" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G71" s="11" t="s">
@@ -35852,28 +35875,28 @@
         <v>18</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1">
-      <c r="A72" s="78">
+      <c r="A72" s="65">
         <v>69</v>
       </c>
-      <c r="B72" s="76" t="s">
-        <v>95</v>
+      <c r="B72" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="10">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="E72" s="10">
-        <v>43952</v>
+        <v>43946</v>
       </c>
       <c r="F72" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G72" s="11" t="s">
@@ -35883,28 +35906,28 @@
         <v>27</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1">
-      <c r="A73" s="78">
+      <c r="A73" s="65">
         <v>70</v>
       </c>
-      <c r="B73" s="76" t="s">
-        <v>98</v>
+      <c r="B73" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="10">
-        <v>43952</v>
+        <v>43948</v>
       </c>
       <c r="E73" s="10">
-        <v>43953</v>
+        <v>43949</v>
       </c>
       <c r="F73" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G73" s="11" t="s">
@@ -35914,59 +35937,59 @@
         <v>18</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1">
-      <c r="A74" s="78">
+      <c r="A74" s="65">
         <v>71</v>
       </c>
-      <c r="B74" s="76" t="s">
-        <v>101</v>
+      <c r="B74" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="10">
-        <v>43955</v>
+        <v>43950</v>
       </c>
       <c r="E74" s="10">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1">
-      <c r="A75" s="78">
+      <c r="A75" s="65">
         <v>72</v>
       </c>
-      <c r="B75" s="76" t="s">
-        <v>104</v>
+      <c r="B75" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="10">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="E75" s="10">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -35976,28 +35999,28 @@
         <v>18</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="78">
+      <c r="A76" s="65">
         <v>73</v>
       </c>
-      <c r="B76" s="76" t="s">
-        <v>107</v>
+      <c r="B76" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="10">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="E76" s="10">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G76" s="11" t="s">
@@ -36007,28 +36030,28 @@
         <v>18</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
-      <c r="A77" s="78">
+      <c r="A77" s="65">
         <v>74</v>
       </c>
-      <c r="B77" s="76" t="s">
-        <v>109</v>
+      <c r="B77" s="63" t="s">
+        <v>100</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="10">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="E77" s="10">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="F77" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
@@ -36038,28 +36061,28 @@
         <v>18</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1">
-      <c r="A78" s="78">
+      <c r="A78" s="65">
         <v>75</v>
       </c>
-      <c r="B78" s="76" t="s">
-        <v>110</v>
+      <c r="B78" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="10">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="E78" s="10">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -36069,28 +36092,28 @@
         <v>18</v>
       </c>
       <c r="I78" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1">
-      <c r="A79" s="78">
+      <c r="A79" s="65">
         <v>76</v>
       </c>
-      <c r="B79" s="76" t="s">
-        <v>111</v>
+      <c r="B79" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="10">
-        <v>43962</v>
+        <v>43958</v>
       </c>
       <c r="E79" s="10">
-        <v>43963</v>
+        <v>43959</v>
       </c>
       <c r="F79" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
@@ -36100,81 +36123,122 @@
         <v>18</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J79" s="23"/>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="65">
+        <v>77</v>
+      </c>
+      <c r="B80" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="10">
+        <v>43959</v>
+      </c>
+      <c r="E80" s="10">
+        <v>43960</v>
+      </c>
+      <c r="F80" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="23">
+        <v>18</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1">
+      <c r="A81" s="65">
+        <v>78</v>
+      </c>
+      <c r="B81" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10">
+        <v>43962</v>
+      </c>
+      <c r="E81" s="10">
+        <v>43963</v>
+      </c>
+      <c r="F81" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="23">
+        <v>18</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" s="23"/>
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1">
+      <c r="A82" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="25">
-        <f>SUM(H4:H79)</f>
-        <v>1724</v>
-      </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="25">
-        <f>SUM(J4:J79)</f>
+      <c r="B82" s="80"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="25">
+        <f>SUM(F4:F81)</f>
+        <v>126</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="25">
+        <f>SUM(H4:H81)</f>
+        <v>1778</v>
+      </c>
+      <c r="I82" s="28"/>
+      <c r="J82" s="25">
+        <f>SUM(J4:J81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="15" customHeight="1">
-      <c r="H81" s="4"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="2:10" ht="15" customHeight="1">
-      <c r="H82" s="4"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="2:10" ht="15" customHeight="1">
+    <row r="83" spans="1:10" ht="15" customHeight="1">
       <c r="H83" s="4"/>
       <c r="I83" s="29"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="2:10" ht="15" customHeight="1">
-      <c r="B84" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="1"/>
+    <row r="84" spans="1:10" ht="15" customHeight="1">
       <c r="H84" s="4"/>
       <c r="I84" s="29"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" ht="15" customHeight="1">
-      <c r="B85" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
+    <row r="85" spans="1:10" ht="15" customHeight="1">
       <c r="H85" s="4"/>
       <c r="I85" s="29"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" ht="15" customHeight="1">
-      <c r="B86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
+    <row r="86" spans="1:10" ht="15" customHeight="1">
+      <c r="B86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1"/>
       <c r="H86" s="4"/>
       <c r="I86" s="29"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" ht="15" customHeight="1">
+    <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" s="6">
         <v>0</v>
@@ -36183,9 +36247,9 @@
       <c r="I87" s="29"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" ht="15" customHeight="1">
+    <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="B88" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
@@ -36194,79 +36258,73 @@
       <c r="I88" s="29"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:10" ht="15" customHeight="1">
+    <row r="89" spans="1:10" ht="15" customHeight="1">
+      <c r="B89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="29"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="2:10" ht="15" customHeight="1">
+    <row r="90" spans="1:10" ht="15" customHeight="1">
+      <c r="B90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="29"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="2:10" ht="15" customHeight="1">
-      <c r="B91" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1"/>
+    <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="H91" s="4"/>
       <c r="I91" s="29"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" ht="15" customHeight="1">
-      <c r="B92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="7"/>
+    <row r="92" spans="1:10" ht="15" customHeight="1">
       <c r="H92" s="4"/>
       <c r="I92" s="29"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" ht="15" customHeight="1">
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="7"/>
+    <row r="93" spans="1:10" ht="15" customHeight="1">
+      <c r="B93" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="H93" s="4"/>
       <c r="I93" s="29"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" ht="15" customHeight="1">
+    <row r="94" spans="1:10" ht="15" customHeight="1">
+      <c r="B94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7"/>
       <c r="H94" s="4"/>
       <c r="I94" s="29"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" ht="15" customHeight="1">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+    <row r="95" spans="1:10" ht="15" customHeight="1">
+      <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="H95" s="4"/>
       <c r="I95" s="29"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" ht="15" customHeight="1">
-      <c r="B96" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+    <row r="96" spans="1:10" ht="15" customHeight="1">
       <c r="H96" s="4"/>
       <c r="I96" s="29"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:20" ht="15" customHeight="1">
-      <c r="B97" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="17">
-        <v>6</v>
-      </c>
+    <row r="97" spans="2:10" ht="15" customHeight="1">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -36275,106 +36333,110 @@
       <c r="I97" s="29"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="2:20" ht="15" customHeight="1">
-      <c r="B98" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="17">
-        <v>21</v>
-      </c>
+    <row r="98" spans="2:10" ht="15" customHeight="1">
+      <c r="B98" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="29"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="2:20" ht="15" customHeight="1">
-      <c r="B99" s="32" t="s">
-        <v>18</v>
+    <row r="99" spans="2:10" ht="15" customHeight="1">
+      <c r="B99" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C99" s="17">
         <v>6</v>
       </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="29"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="2:20" ht="15" customHeight="1">
-      <c r="B100" s="33" t="s">
-        <v>19</v>
+    <row r="100" spans="2:10" ht="15" customHeight="1">
+      <c r="B100" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C100" s="17">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="29"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="2:20" ht="15" customHeight="1">
-      <c r="B101" s="34" t="s">
-        <v>20</v>
+    <row r="101" spans="2:10" ht="15" customHeight="1">
+      <c r="B101" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C101" s="17">
-        <v>17</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>6</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="29"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:20" ht="15" customHeight="1">
+    <row r="102" spans="2:10" ht="15" customHeight="1">
+      <c r="B102" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="17">
+        <v>11</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="29"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:20" ht="15" customHeight="1">
+    <row r="103" spans="2:10" ht="15" customHeight="1">
+      <c r="B103" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="17">
+        <v>17</v>
+      </c>
+      <c r="E103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="29"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:20" ht="15" customHeight="1">
+    <row r="104" spans="2:10" ht="15" customHeight="1">
       <c r="H104" s="4"/>
       <c r="I104" s="29"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="2:20" ht="15" customHeight="1">
+    <row r="105" spans="2:10" ht="15" customHeight="1">
       <c r="H105" s="4"/>
       <c r="I105" s="29"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="2:20" ht="15" customHeight="1">
-      <c r="C106" s="8"/>
+    <row r="106" spans="2:10" ht="15" customHeight="1">
       <c r="H106" s="4"/>
       <c r="I106" s="29"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="2:20" ht="15" customHeight="1"/>
-    <row r="108" spans="2:20" ht="15" customHeight="1"/>
-    <row r="109" spans="2:20" ht="15" customHeight="1"/>
-    <row r="110" spans="2:20" ht="15" customHeight="1"/>
-    <row r="111" spans="2:20" ht="15" customHeight="1"/>
-    <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-    </row>
-    <row r="113" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-    </row>
+    <row r="107" spans="2:10" ht="15" customHeight="1">
+      <c r="H107" s="4"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:10" ht="15" customHeight="1">
+      <c r="C108" s="8"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" ht="15" customHeight="1"/>
+    <row r="110" spans="2:10" ht="15" customHeight="1"/>
+    <row r="111" spans="2:10" ht="15" customHeight="1"/>
+    <row r="112" spans="2:10" ht="15" customHeight="1"/>
+    <row r="113" spans="11:20" ht="15" customHeight="1"/>
     <row r="114" spans="11:20" ht="16.5" customHeight="1">
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -36435,7 +36497,7 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="11:20" ht="15" customHeight="1">
+    <row r="119" spans="11:20" ht="16.5" customHeight="1">
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
@@ -36447,7 +36509,7 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="11:20" ht="15" customHeight="1">
+    <row r="120" spans="11:20" ht="16.5" customHeight="1">
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
@@ -36723,7 +36785,7 @@
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="11:20">
+    <row r="143" spans="11:20" ht="15" customHeight="1">
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
@@ -36735,7 +36797,7 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="11:20">
+    <row r="144" spans="11:20" ht="15" customHeight="1">
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
@@ -36783,16 +36845,40 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
     </row>
+    <row r="148" spans="11:20">
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="11:20">
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C61:C79" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C63:C81" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I79" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I81" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE911C6-3D0E-42C6-9565-4D91D748E3C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B7A22-3A28-4FC0-AD11-D0185B773187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="123">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -33796,8 +33796,8 @@
   </sheetPr>
   <dimension ref="A2:T149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33880,7 +33880,9 @@
       <c r="I4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="24">
       <c r="A5" s="65">
@@ -33911,7 +33913,9 @@
       <c r="I5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="65">
@@ -33942,7 +33946,9 @@
       <c r="I6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="23">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="65">
@@ -33973,7 +33979,9 @@
       <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="65">
@@ -34004,7 +34012,9 @@
       <c r="I8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="23">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="65">
@@ -34035,7 +34045,9 @@
       <c r="I9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="65">
@@ -34066,7 +34078,9 @@
       <c r="I10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="65">
@@ -34097,7 +34111,9 @@
       <c r="I11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="65">
@@ -34128,7 +34144,9 @@
       <c r="I12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="23">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="65">
@@ -34159,7 +34177,9 @@
       <c r="I13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="23">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="65">
@@ -34190,7 +34210,9 @@
       <c r="I14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="24">
       <c r="A15" s="65">
@@ -34221,7 +34243,9 @@
       <c r="I15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="65">
@@ -34252,7 +34276,9 @@
       <c r="I16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="23">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="65">
@@ -34283,7 +34309,9 @@
       <c r="I17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="65">
@@ -34314,7 +34342,9 @@
       <c r="I18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="65">
@@ -34345,7 +34375,9 @@
       <c r="I19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="23">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="65">
@@ -34376,7 +34408,9 @@
       <c r="I20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="65">
@@ -34407,7 +34441,9 @@
       <c r="I21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="65">
@@ -34438,7 +34474,9 @@
       <c r="I22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="65">
@@ -34460,14 +34498,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H23" s="23">
         <v>27</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
       <c r="A24" s="65">
@@ -34489,14 +34531,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H24" s="23">
         <v>27</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="23">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
       <c r="A25" s="65">
@@ -34518,14 +34564,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H25" s="23">
         <v>27</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="23">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
       <c r="A26" s="65">
@@ -36209,7 +36259,7 @@
       <c r="I82" s="28"/>
       <c r="J82" s="25">
         <f>SUM(J4:J81)</f>
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7617996-066B-4DEE-9D4B-375B03CFEBBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B7A22-3A28-4FC0-AD11-D0185B773187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="123">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Số ngày (ngày)</t>
-  </si>
-  <si>
-    <t>Tổng thời gian = 104 ngày</t>
   </si>
   <si>
     <t>Cao</t>
@@ -221,15 +218,6 @@
   </si>
   <si>
     <t>Design use case diagram module 3</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results "Employees" website</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results the week "Team" website</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results the week "Room" website</t>
   </si>
   <si>
     <t>Code Front-end View details of the weekly business results the "Employees"  app</t>
@@ -373,18 +361,6 @@
     <t>Test Search and compare business results "Rooms" app</t>
   </si>
   <si>
-    <t>Code Front-end, back-end View business results the week "Room" website</t>
-  </si>
-  <si>
-    <t>Test View business results "Employees" website</t>
-  </si>
-  <si>
-    <t>Test View business results the week "Team" website</t>
-  </si>
-  <si>
-    <t>Test View business results the week "Room" website</t>
-  </si>
-  <si>
     <t>Schedule module 3</t>
   </si>
   <si>
@@ -408,12 +384,6 @@
     </r>
   </si>
   <si>
-    <t>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</t>
-  </si>
-  <si>
-    <t>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</t>
-  </si>
-  <si>
     <t>Code Front-end View business results the week "Employees" app and "View personal information" app</t>
   </si>
   <si>
@@ -427,6 +397,39 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Test View business results View statistic - report</t>
+  </si>
+  <si>
+    <t>Code Front-end View personal information app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View personal information app</t>
+  </si>
+  <si>
+    <t>Code Back-end View personal information app</t>
+  </si>
+  <si>
+    <t>Test  Import file website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  Import file website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  View statistic - report website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "Forgot password" website</t>
+  </si>
+  <si>
+    <t>Test View personal information app and "Forgot password" website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Import file website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View statistic - report website</t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1150,27 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,27 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,9 +1352,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$80</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$82</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description View business results the week "Employees" app</c:v>
                 </c:pt>
@@ -1401,13 +1404,13 @@
                   <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Design prototype, sequence, use case description View business results "Employees" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View statistic - report website</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Team" website</c:v>
+                  <c:v>Design prototype, sequence, use case description Import file website</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Room" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Design messages list module 3</c:v>
@@ -1467,128 +1470,134 @@
                   <c:v>Code Front-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>Code Front-end View personal information app</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>Code Back-end View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>Code Back-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Code Back-end View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Code Back-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>Code Back-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>Code Back-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>Code Back-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>Code Back-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>Code Back-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>Code Back-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>Code Back-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>Code Back-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>Code Back-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>Code Back-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>Code Back-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</c:v>
+                  <c:v>Code Back-end View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Code Front-end, back-end View business results the week "Room" website</c:v>
+                  <c:v>Code Front-end, back-end  "Forgot password" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>Code Front-end, back-end  View statistic - report website</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Code Front-end, back-end  Import file website</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>Test View business results "Employees" website</c:v>
+                <c:pt idx="75">
+                  <c:v>Test View business results View statistic - report</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>Test View business results the week "Team" website</c:v>
+                <c:pt idx="76">
+                  <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>Test View business results the week "Room" website</c:v>
+                <c:pt idx="77">
+                  <c:v>Test View personal information app and "Forgot password" website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$D$4:$D$80</c:f>
+              <c:f>'Dữ liệu dự án'!$D$4:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43927</c:v>
                 </c:pt>
@@ -1704,117 +1713,123 @@
                   <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>43962</c:v>
                 </c:pt>
               </c:numCache>
@@ -3310,9 +3325,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$80</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$82</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description View business results the week "Employees" app</c:v>
                 </c:pt>
@@ -3362,13 +3377,13 @@
                   <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Design prototype, sequence, use case description View business results "Employees" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View statistic - report website</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Team" website</c:v>
+                  <c:v>Design prototype, sequence, use case description Import file website</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Room" website</c:v>
+                  <c:v>Design prototype, sequence, use case description View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Design messages list module 3</c:v>
@@ -3428,128 +3443,134 @@
                   <c:v>Code Front-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>Code Front-end View personal information app</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>Code Back-end View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>Code Back-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Code Back-end View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Code Back-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>Code Back-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>Code Back-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>Code Back-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>Code Back-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>Code Back-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>Code Back-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>Code Back-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>Code Back-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>Code Back-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>Code Back-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>Code Back-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>Code Front-end, back-end View business results "Employees" website and "Forgot password" app</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>Code Front-end, back-end View business results the week "Team" website and "Change Password" app</c:v>
+                  <c:v>Code Back-end View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Code Front-end, back-end View business results the week "Room" website</c:v>
+                  <c:v>Code Front-end, back-end  "Forgot password" website</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>Code Front-end, back-end  View statistic - report website</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Code Front-end, back-end  Import file website</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>Test View business results "Employees" website</c:v>
+                <c:pt idx="75">
+                  <c:v>Test View business results View statistic - report</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>Test View business results the week "Team" website</c:v>
+                <c:pt idx="76">
+                  <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>Test View business results the week "Room" website</c:v>
+                <c:pt idx="77">
+                  <c:v>Test View personal information app and "Forgot password" website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$F$4:$F$80</c:f>
+              <c:f>'Dữ liệu dự án'!$F$4:$F$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3665,7 +3686,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
@@ -3686,49 +3707,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
@@ -3737,7 +3758,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>1</c:v>
@@ -3761,7 +3782,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1</c:v>
@@ -3779,7 +3800,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4069,7 +4096,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$97:$B$101</c:f>
+              <c:f>'Dữ liệu dự án'!$B$99:$B$103</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4092,7 +4119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$97:$C$101</c:f>
+              <c:f>'Dữ liệu dự án'!$C$99:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4322,7 +4349,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$85:$B$88</c:f>
+              <c:f>'Dữ liệu dự án'!$B$87:$B$90</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4342,7 +4369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$85:$C$88</c:f>
+              <c:f>'Dữ liệu dự án'!$C$87:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4516,7 +4543,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$92:$B$93</c:f>
+              <c:f>'Dữ liệu dự án'!$B$94:$B$95</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4530,7 +4557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$92:$C$93</c:f>
+              <c:f>'Dữ liệu dự án'!$C$94:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5709,18 +5736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="A1" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -5739,16 +5766,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -5767,24 +5794,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="66"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -5799,24 +5826,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -5831,24 +5858,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" s="66"/>
+        <v>28</v>
+      </c>
+      <c r="M5" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="73"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -5863,24 +5890,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="66"/>
+      <c r="N6" s="73"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -5895,24 +5922,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="67">
+        <v>31</v>
+      </c>
+      <c r="M7" s="74">
         <v>43556</v>
       </c>
-      <c r="N7" s="68"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -5927,16 +5954,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -5955,16 +5982,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -5983,16 +6010,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -6011,23 +6038,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="L11" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -6041,28 +6068,28 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="N12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>36</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>37</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -6077,28 +6104,28 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="45">
         <v>43556</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -6113,16 +6140,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -6141,16 +6168,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -6169,16 +6196,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -6197,16 +6224,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -6225,16 +6252,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -6253,16 +6280,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -6281,16 +6308,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -33767,15 +33794,15 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:T147"/>
+  <dimension ref="A2:T149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="72"/>
+    <col min="1" max="1" width="11" style="59"/>
     <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
@@ -33793,10 +33820,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -33815,21 +33842,21 @@
         <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24">
-      <c r="A4" s="78">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>53</v>
+      <c r="B4" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
@@ -33841,7 +33868,7 @@
         <v>43928</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" ref="F4:F67" si="0">E4-D4</f>
+        <f t="shared" ref="F4:F69" si="0">E4-D4</f>
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -33851,16 +33878,18 @@
         <v>18</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J4" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="24">
-      <c r="A5" s="78">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>52</v>
+      <c r="B5" s="61" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
@@ -33882,16 +33911,18 @@
         <v>18</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J5" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="78">
+      <c r="A6" s="65">
         <v>3</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>50</v>
+      <c r="B6" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
@@ -33913,16 +33944,18 @@
         <v>18</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J6" s="23">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="78">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>51</v>
+      <c r="B7" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
@@ -33944,16 +33977,18 @@
         <v>18</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J7" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="78">
+      <c r="A8" s="65">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>49</v>
+      <c r="B8" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
@@ -33975,16 +34010,18 @@
         <v>18</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J8" s="23">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="78">
+      <c r="A9" s="65">
         <v>6</v>
       </c>
-      <c r="B9" s="74" t="s">
-        <v>42</v>
+      <c r="B9" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>17</v>
@@ -34006,16 +34043,18 @@
         <v>18</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J9" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="78">
+      <c r="A10" s="65">
         <v>7</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>43</v>
+      <c r="B10" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -34037,16 +34076,18 @@
         <v>18</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J10" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="78">
+      <c r="A11" s="65">
         <v>8</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>44</v>
+      <c r="B11" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>17</v>
@@ -34068,16 +34109,18 @@
         <v>18</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J11" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="78">
+      <c r="A12" s="65">
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>47</v>
+      <c r="B12" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>17</v>
@@ -34099,16 +34142,18 @@
         <v>18</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J12" s="23">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="78">
+      <c r="A13" s="65">
         <v>10</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>45</v>
+      <c r="B13" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
@@ -34130,16 +34175,18 @@
         <v>18</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J13" s="23">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="78">
+      <c r="A14" s="65">
         <v>11</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>46</v>
+      <c r="B14" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>17</v>
@@ -34161,16 +34208,18 @@
         <v>18</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J14" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="24">
-      <c r="A15" s="78">
+      <c r="A15" s="65">
         <v>12</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>118</v>
+      <c r="B15" s="61" t="s">
+        <v>108</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
@@ -34192,16 +34241,18 @@
         <v>18</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J15" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="78">
+      <c r="A16" s="65">
         <v>13</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>48</v>
+      <c r="B16" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
@@ -34223,16 +34274,18 @@
         <v>18</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J16" s="23">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="78">
+      <c r="A17" s="65">
         <v>14</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>119</v>
+      <c r="B17" s="61" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>17</v>
@@ -34254,16 +34307,18 @@
         <v>18</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J17" s="23">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="78">
+      <c r="A18" s="65">
         <v>15</v>
       </c>
-      <c r="B18" s="74" t="s">
-        <v>54</v>
+      <c r="B18" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
@@ -34285,16 +34340,18 @@
         <v>18</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J18" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="78">
+      <c r="A19" s="65">
         <v>16</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>120</v>
+      <c r="B19" s="61" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
@@ -34316,16 +34373,18 @@
         <v>18</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J19" s="23">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
-      <c r="A20" s="78">
+      <c r="A20" s="65">
         <v>17</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>58</v>
+      <c r="B20" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
@@ -34347,16 +34406,18 @@
         <v>18</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J20" s="23">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="78">
+      <c r="A21" s="65">
         <v>18</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>59</v>
+      <c r="B21" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
@@ -34378,16 +34439,18 @@
         <v>18</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J21" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="78">
+      <c r="A22" s="65">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>60</v>
+      <c r="B22" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
@@ -34409,16 +34472,18 @@
         <v>18</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J22" s="23">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="78">
+      <c r="A23" s="65">
         <v>20</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>55</v>
+      <c r="B23" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
@@ -34433,21 +34498,25 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H23" s="23">
         <v>27</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J23" s="23">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="78">
+      <c r="A24" s="65">
         <v>21</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>56</v>
+      <c r="B24" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
@@ -34462,21 +34531,25 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H24" s="23">
         <v>27</v>
       </c>
       <c r="I24" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="23">
         <v>24</v>
       </c>
-      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="78">
+      <c r="A25" s="65">
         <v>22</v>
       </c>
-      <c r="B25" s="74" t="s">
-        <v>57</v>
+      <c r="B25" s="61" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
@@ -34491,21 +34564,25 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H25" s="23">
         <v>27</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J25" s="23">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="78">
+      <c r="A26" s="65">
         <v>23</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>117</v>
+      <c r="B26" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>16</v>
@@ -34525,16 +34602,16 @@
         <v>18</v>
       </c>
       <c r="I26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A27" s="65">
         <v>24</v>
       </c>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="78">
-        <v>24</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>61</v>
+      <c r="B27" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>16</v>
@@ -34554,16 +34631,16 @@
         <v>18</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A28" s="78">
+      <c r="A28" s="65">
         <v>25</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>62</v>
+      <c r="B28" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>16</v>
@@ -34583,16 +34660,16 @@
         <v>18</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A29" s="78">
+      <c r="A29" s="65">
         <v>26</v>
       </c>
-      <c r="B29" s="75" t="s">
-        <v>66</v>
+      <c r="B29" s="62" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
@@ -34612,16 +34689,16 @@
         <v>18</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A30" s="78">
+      <c r="A30" s="65">
         <v>27</v>
       </c>
-      <c r="B30" s="75" t="s">
-        <v>72</v>
+      <c r="B30" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
@@ -34641,16 +34718,16 @@
         <v>18</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="78">
+      <c r="A31" s="65">
         <v>28</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>75</v>
+      <c r="B31" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>16</v>
@@ -34670,16 +34747,16 @@
         <v>18</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A32" s="78">
+      <c r="A32" s="65">
         <v>29</v>
       </c>
-      <c r="B32" s="75" t="s">
-        <v>78</v>
+      <c r="B32" s="62" t="s">
+        <v>74</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>16</v>
@@ -34699,16 +34776,16 @@
         <v>18</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="78">
+      <c r="A33" s="65">
         <v>30</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>81</v>
+      <c r="B33" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>16</v>
@@ -34728,16 +34805,16 @@
         <v>27</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="78">
+      <c r="A34" s="65">
         <v>31</v>
       </c>
-      <c r="B34" s="75" t="s">
-        <v>84</v>
+      <c r="B34" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>16</v>
@@ -34757,16 +34834,16 @@
         <v>18</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="78">
+      <c r="A35" s="65">
         <v>32</v>
       </c>
-      <c r="B35" s="75" t="s">
-        <v>87</v>
+      <c r="B35" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>16</v>
@@ -34786,16 +34863,16 @@
         <v>27</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A36" s="78">
+      <c r="A36" s="65">
         <v>33</v>
       </c>
-      <c r="B36" s="75" t="s">
-        <v>90</v>
+      <c r="B36" s="62" t="s">
+        <v>86</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>16</v>
@@ -34815,16 +34892,16 @@
         <v>18</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="78">
+      <c r="A37" s="65">
         <v>34</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>93</v>
+      <c r="B37" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>16</v>
@@ -34844,16 +34921,16 @@
         <v>27</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A38" s="78">
+      <c r="A38" s="65">
         <v>35</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>96</v>
+      <c r="B38" s="62" t="s">
+        <v>92</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>16</v>
@@ -34873,16 +34950,16 @@
         <v>18</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A39" s="78">
+      <c r="A39" s="65">
         <v>36</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>99</v>
+      <c r="B39" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>16</v>
@@ -34902,16 +34979,16 @@
         <v>27</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A40" s="78">
+      <c r="A40" s="65">
         <v>37</v>
       </c>
-      <c r="B40" s="75" t="s">
-        <v>102</v>
+      <c r="B40" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>16</v>
@@ -34931,16 +35008,16 @@
         <v>18</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A41" s="78">
+      <c r="A41" s="65">
         <v>38</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>105</v>
+      <c r="B41" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>16</v>
@@ -34952,7 +35029,7 @@
         <v>43957</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F41" si="1">E41-D41</f>
         <v>2</v>
       </c>
       <c r="G41" s="11"/>
@@ -34960,54 +35037,54 @@
         <v>27</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A42" s="78">
+      <c r="A42" s="65">
         <v>39</v>
       </c>
-      <c r="B42" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>18</v>
+      <c r="B42" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="10">
-        <v>43922</v>
+        <v>43955</v>
       </c>
       <c r="E42" s="10">
-        <v>43923</v>
+        <v>43957</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A43" s="78">
+      <c r="A43" s="65">
         <v>40</v>
       </c>
-      <c r="B43" s="75" t="s">
-        <v>64</v>
+      <c r="B43" s="62" t="s">
+        <v>59</v>
       </c>
       <c r="C43" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="10">
+        <v>43922</v>
+      </c>
+      <c r="E43" s="10">
         <v>43923</v>
-      </c>
-      <c r="E43" s="10">
-        <v>43924</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="0"/>
@@ -35018,25 +35095,25 @@
         <v>18</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A44" s="78">
+      <c r="A44" s="65">
         <v>41</v>
       </c>
-      <c r="B44" s="75" t="s">
-        <v>65</v>
+      <c r="B44" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="E44" s="10">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="0"/>
@@ -35047,25 +35124,25 @@
         <v>18</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A45" s="78">
+      <c r="A45" s="65">
         <v>42</v>
       </c>
-      <c r="B45" s="75" t="s">
-        <v>67</v>
+      <c r="B45" s="62" t="s">
+        <v>61</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10">
+        <v>43927</v>
+      </c>
+      <c r="E45" s="10">
         <v>43928</v>
-      </c>
-      <c r="E45" s="10">
-        <v>43929</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="0"/>
@@ -35076,25 +35153,25 @@
         <v>18</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A46" s="78">
+      <c r="A46" s="65">
         <v>43</v>
       </c>
-      <c r="B46" s="75" t="s">
-        <v>73</v>
+      <c r="B46" s="62" t="s">
+        <v>63</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="10">
+        <v>43928</v>
+      </c>
+      <c r="E46" s="10">
         <v>43929</v>
-      </c>
-      <c r="E46" s="10">
-        <v>43930</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="0"/>
@@ -35105,25 +35182,25 @@
         <v>18</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A47" s="78">
+      <c r="A47" s="65">
         <v>44</v>
       </c>
-      <c r="B47" s="75" t="s">
-        <v>76</v>
+      <c r="B47" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="10">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="E47" s="10">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="0"/>
@@ -35134,25 +35211,25 @@
         <v>18</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A48" s="78">
+      <c r="A48" s="65">
         <v>45</v>
       </c>
-      <c r="B48" s="75" t="s">
-        <v>79</v>
+      <c r="B48" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="10">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="E48" s="10">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="0"/>
@@ -35163,466 +35240,462 @@
         <v>18</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A49" s="78">
+      <c r="A49" s="65">
         <v>46</v>
       </c>
-      <c r="B49" s="75" t="s">
-        <v>82</v>
+      <c r="B49" s="62" t="s">
+        <v>75</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="10">
+        <v>43934</v>
+      </c>
+      <c r="E49" s="10">
         <v>43935</v>
-      </c>
-      <c r="E49" s="10">
-        <v>43937</v>
       </c>
       <c r="F49" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A50" s="78">
+      <c r="A50" s="65">
         <v>47</v>
       </c>
-      <c r="B50" s="75" t="s">
-        <v>85</v>
+      <c r="B50" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="10">
+        <v>43935</v>
+      </c>
+      <c r="E50" s="10">
         <v>43937</v>
-      </c>
-      <c r="E50" s="10">
-        <v>43938</v>
       </c>
       <c r="F50" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A51" s="78">
+      <c r="A51" s="65">
         <v>48</v>
       </c>
-      <c r="B51" s="75" t="s">
-        <v>88</v>
+      <c r="B51" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10">
-        <v>43941</v>
+        <v>43937</v>
       </c>
       <c r="E51" s="10">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="F51" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A52" s="78">
+      <c r="A52" s="65">
         <v>49</v>
       </c>
-      <c r="B52" s="75" t="s">
-        <v>91</v>
+      <c r="B52" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="10">
+        <v>43941</v>
+      </c>
+      <c r="E52" s="10">
         <v>43943</v>
-      </c>
-      <c r="E52" s="10">
-        <v>43944</v>
       </c>
       <c r="F52" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A53" s="78">
+      <c r="A53" s="65">
         <v>50</v>
       </c>
-      <c r="B53" s="75" t="s">
-        <v>94</v>
+      <c r="B53" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="10">
+        <v>43943</v>
+      </c>
+      <c r="E53" s="10">
         <v>43944</v>
-      </c>
-      <c r="E53" s="10">
-        <v>43946</v>
       </c>
       <c r="F53" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A54" s="78">
+      <c r="A54" s="65">
         <v>51</v>
       </c>
-      <c r="B54" s="75" t="s">
-        <v>97</v>
+      <c r="B54" s="62" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="10">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="E54" s="10">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="F54" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A55" s="78">
+      <c r="A55" s="65">
         <v>52</v>
       </c>
-      <c r="B55" s="75" t="s">
-        <v>100</v>
+      <c r="B55" s="62" t="s">
+        <v>93</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="10">
+        <v>43948</v>
+      </c>
+      <c r="E55" s="10">
         <v>43949</v>
-      </c>
-      <c r="E55" s="10">
-        <v>43951</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A56" s="78">
+      <c r="A56" s="65">
         <v>53</v>
       </c>
-      <c r="B56" s="75" t="s">
-        <v>103</v>
+      <c r="B56" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="10">
+        <v>43949</v>
+      </c>
+      <c r="E56" s="10">
         <v>43951</v>
-      </c>
-      <c r="E56" s="10">
-        <v>43952</v>
       </c>
       <c r="F56" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A57" s="78">
+      <c r="A57" s="65">
         <v>54</v>
       </c>
-      <c r="B57" s="75" t="s">
-        <v>106</v>
+      <c r="B57" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="10">
-        <v>43955</v>
+        <v>43951</v>
       </c>
       <c r="E57" s="10">
-        <v>43957</v>
+        <v>43952</v>
       </c>
       <c r="F57" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A58" s="78">
+      <c r="A58" s="65">
         <v>55</v>
       </c>
-      <c r="B58" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>19</v>
+      <c r="B58" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D58" s="10">
-        <v>43922</v>
+        <v>43955</v>
       </c>
       <c r="E58" s="10">
-        <v>43931</v>
+        <v>43957</v>
       </c>
       <c r="F58" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="23">
+        <v>27</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A59" s="65">
+        <v>56</v>
+      </c>
+      <c r="B59" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="10">
+        <v>43955</v>
+      </c>
+      <c r="E59" s="10">
+        <v>43957</v>
+      </c>
+      <c r="F59" s="24">
+        <f t="shared" ref="F59" si="2">E59-D59</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="23">
+        <v>27</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="65">
+        <v>57</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="10">
+        <v>43922</v>
+      </c>
+      <c r="E60" s="10">
+        <v>43931</v>
+      </c>
+      <c r="F60" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="23">
         <v>72</v>
       </c>
-      <c r="I58" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="78">
-        <v>56</v>
-      </c>
-      <c r="B59" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="I60" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="65">
+        <v>58</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="10">
         <v>43934</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E61" s="10">
         <v>43945</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F61" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="23">
+      <c r="G61" s="11"/>
+      <c r="H61" s="23">
         <v>88</v>
       </c>
-      <c r="I59" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="78">
-        <v>57</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="I61" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1">
+      <c r="A62" s="65">
+        <v>59</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D62" s="10">
         <v>43948</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E62" s="10">
         <v>43959</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F62" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="23">
+      <c r="G62" s="11"/>
+      <c r="H62" s="23">
         <v>88</v>
       </c>
-      <c r="I60" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="78">
-        <v>58</v>
-      </c>
-      <c r="B61" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="26" t="s">
+      <c r="I62" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1">
+      <c r="A63" s="65">
+        <v>60</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D63" s="10">
         <v>43922</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E63" s="10">
         <v>43924</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F63" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
-        <v>27</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="78">
-        <v>59</v>
-      </c>
-      <c r="B62" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="10">
-        <v>43927</v>
-      </c>
-      <c r="E62" s="10">
-        <v>43928</v>
-      </c>
-      <c r="F62" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
-        <v>18</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="78">
-        <v>60</v>
-      </c>
-      <c r="B63" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="10">
-        <v>43929</v>
-      </c>
-      <c r="E63" s="10">
-        <v>43930</v>
-      </c>
-      <c r="F63" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="G63" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H63" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J63" s="23"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
-      <c r="A64" s="78">
+      <c r="A64" s="65">
         <v>61</v>
       </c>
-      <c r="B64" s="76" t="s">
-        <v>71</v>
+      <c r="B64" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="10">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="E64" s="10">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="F64" s="24">
         <f t="shared" si="0"/>
@@ -35635,25 +35708,25 @@
         <v>18</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J64" s="23"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65" s="78">
+      <c r="A65" s="65">
         <v>62</v>
       </c>
-      <c r="B65" s="76" t="s">
-        <v>74</v>
+      <c r="B65" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="10">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="E65" s="10">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="F65" s="24">
         <f t="shared" si="0"/>
@@ -35666,56 +35739,56 @@
         <v>18</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" s="23"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66" s="78">
+      <c r="A66" s="65">
         <v>63</v>
       </c>
-      <c r="B66" s="76" t="s">
-        <v>77</v>
+      <c r="B66" s="63" t="s">
+        <v>67</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="10">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="E66" s="10">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="F66" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H66" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1">
-      <c r="A67" s="78">
+      <c r="A67" s="65">
         <v>64</v>
       </c>
-      <c r="B67" s="76" t="s">
-        <v>80</v>
+      <c r="B67" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="10">
-        <v>43937</v>
+        <v>43931</v>
       </c>
       <c r="E67" s="10">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="F67" s="24">
         <f t="shared" si="0"/>
@@ -35728,28 +35801,28 @@
         <v>18</v>
       </c>
       <c r="I67" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1">
-      <c r="A68" s="78">
+      <c r="A68" s="65">
         <v>65</v>
       </c>
-      <c r="B68" s="76" t="s">
-        <v>83</v>
+      <c r="B68" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="10">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="E68" s="10">
-        <v>43941</v>
+        <v>43936</v>
       </c>
       <c r="F68" s="24">
-        <f t="shared" ref="F68:F79" si="1">E68-D68</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G68" s="11" t="s">
@@ -35759,28 +35832,28 @@
         <v>27</v>
       </c>
       <c r="I68" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J68" s="23"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1">
-      <c r="A69" s="78">
+      <c r="A69" s="65">
         <v>66</v>
       </c>
-      <c r="B69" s="76" t="s">
-        <v>86</v>
+      <c r="B69" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="10">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="E69" s="10">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="F69" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G69" s="11" t="s">
@@ -35790,28 +35863,28 @@
         <v>18</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1">
-      <c r="A70" s="78">
+      <c r="A70" s="65">
         <v>67</v>
       </c>
-      <c r="B70" s="76" t="s">
-        <v>89</v>
+      <c r="B70" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="10">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="E70" s="10">
-        <v>43946</v>
+        <v>43941</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F70:F81" si="3">E70-D70</f>
         <v>2</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -35821,28 +35894,28 @@
         <v>27</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1">
-      <c r="A71" s="78">
+      <c r="A71" s="65">
         <v>68</v>
       </c>
-      <c r="B71" s="76" t="s">
-        <v>92</v>
+      <c r="B71" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="10">
-        <v>43948</v>
+        <v>43942</v>
       </c>
       <c r="E71" s="10">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="F71" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G71" s="11" t="s">
@@ -35852,28 +35925,28 @@
         <v>18</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1">
-      <c r="A72" s="78">
+      <c r="A72" s="65">
         <v>69</v>
       </c>
-      <c r="B72" s="76" t="s">
-        <v>95</v>
+      <c r="B72" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="10">
-        <v>43950</v>
+        <v>43944</v>
       </c>
       <c r="E72" s="10">
-        <v>43952</v>
+        <v>43946</v>
       </c>
       <c r="F72" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G72" s="11" t="s">
@@ -35883,28 +35956,28 @@
         <v>27</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1">
-      <c r="A73" s="78">
+      <c r="A73" s="65">
         <v>70</v>
       </c>
-      <c r="B73" s="76" t="s">
-        <v>98</v>
+      <c r="B73" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="10">
-        <v>43952</v>
+        <v>43948</v>
       </c>
       <c r="E73" s="10">
-        <v>43953</v>
+        <v>43949</v>
       </c>
       <c r="F73" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G73" s="11" t="s">
@@ -35914,59 +35987,59 @@
         <v>18</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1">
-      <c r="A74" s="78">
+      <c r="A74" s="65">
         <v>71</v>
       </c>
-      <c r="B74" s="76" t="s">
-        <v>101</v>
+      <c r="B74" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="10">
-        <v>43955</v>
+        <v>43950</v>
       </c>
       <c r="E74" s="10">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J74" s="23"/>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1">
-      <c r="A75" s="78">
+      <c r="A75" s="65">
         <v>72</v>
       </c>
-      <c r="B75" s="76" t="s">
-        <v>104</v>
+      <c r="B75" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="10">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="E75" s="10">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -35976,28 +36049,28 @@
         <v>18</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="78">
+      <c r="A76" s="65">
         <v>73</v>
       </c>
-      <c r="B76" s="76" t="s">
-        <v>107</v>
+      <c r="B76" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="10">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="E76" s="10">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G76" s="11" t="s">
@@ -36007,28 +36080,28 @@
         <v>18</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
-      <c r="A77" s="78">
+      <c r="A77" s="65">
         <v>74</v>
       </c>
-      <c r="B77" s="76" t="s">
-        <v>109</v>
+      <c r="B77" s="63" t="s">
+        <v>100</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="10">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="E77" s="10">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="F77" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
@@ -36038,28 +36111,28 @@
         <v>18</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" s="23"/>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1">
-      <c r="A78" s="78">
+      <c r="A78" s="65">
         <v>75</v>
       </c>
-      <c r="B78" s="76" t="s">
-        <v>110</v>
+      <c r="B78" s="63" t="s">
+        <v>103</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="10">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="E78" s="10">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -36069,28 +36142,28 @@
         <v>18</v>
       </c>
       <c r="I78" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1">
-      <c r="A79" s="78">
+      <c r="A79" s="65">
         <v>76</v>
       </c>
-      <c r="B79" s="76" t="s">
-        <v>111</v>
+      <c r="B79" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="10">
-        <v>43962</v>
+        <v>43958</v>
       </c>
       <c r="E79" s="10">
-        <v>43963</v>
+        <v>43959</v>
       </c>
       <c r="F79" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
@@ -36100,81 +36173,122 @@
         <v>18</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J79" s="23"/>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="65">
+        <v>77</v>
+      </c>
+      <c r="B80" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="10">
+        <v>43959</v>
+      </c>
+      <c r="E80" s="10">
+        <v>43960</v>
+      </c>
+      <c r="F80" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="23">
+        <v>18</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1">
+      <c r="A81" s="65">
+        <v>78</v>
+      </c>
+      <c r="B81" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10">
+        <v>43962</v>
+      </c>
+      <c r="E81" s="10">
+        <v>43963</v>
+      </c>
+      <c r="F81" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="23">
+        <v>18</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" s="23"/>
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1">
+      <c r="A82" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="25">
-        <f>SUM(H4:H79)</f>
-        <v>1724</v>
-      </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="25">
-        <f>SUM(J4:J79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="15" customHeight="1">
-      <c r="H81" s="4"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="2:10" ht="15" customHeight="1">
-      <c r="H82" s="4"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="2:10" ht="15" customHeight="1">
+      <c r="B82" s="80"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="25">
+        <f>SUM(F4:F81)</f>
+        <v>126</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="25">
+        <f>SUM(H4:H81)</f>
+        <v>1778</v>
+      </c>
+      <c r="I82" s="28"/>
+      <c r="J82" s="25">
+        <f>SUM(J4:J81)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1">
       <c r="H83" s="4"/>
       <c r="I83" s="29"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="2:10" ht="15" customHeight="1">
-      <c r="B84" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="1"/>
+    <row r="84" spans="1:10" ht="15" customHeight="1">
       <c r="H84" s="4"/>
       <c r="I84" s="29"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" ht="15" customHeight="1">
-      <c r="B85" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
+    <row r="85" spans="1:10" ht="15" customHeight="1">
       <c r="H85" s="4"/>
       <c r="I85" s="29"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" ht="15" customHeight="1">
-      <c r="B86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
+    <row r="86" spans="1:10" ht="15" customHeight="1">
+      <c r="B86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1"/>
       <c r="H86" s="4"/>
       <c r="I86" s="29"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" ht="15" customHeight="1">
+    <row r="87" spans="1:10" ht="15" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" s="6">
         <v>0</v>
@@ -36183,9 +36297,9 @@
       <c r="I87" s="29"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" ht="15" customHeight="1">
+    <row r="88" spans="1:10" ht="15" customHeight="1">
       <c r="B88" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" s="6">
         <v>0</v>
@@ -36194,79 +36308,73 @@
       <c r="I88" s="29"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:10" ht="15" customHeight="1">
+    <row r="89" spans="1:10" ht="15" customHeight="1">
+      <c r="B89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="29"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="2:10" ht="15" customHeight="1">
+    <row r="90" spans="1:10" ht="15" customHeight="1">
+      <c r="B90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="29"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="2:10" ht="15" customHeight="1">
-      <c r="B91" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1"/>
+    <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="H91" s="4"/>
       <c r="I91" s="29"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" ht="15" customHeight="1">
-      <c r="B92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="7"/>
+    <row r="92" spans="1:10" ht="15" customHeight="1">
       <c r="H92" s="4"/>
       <c r="I92" s="29"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" ht="15" customHeight="1">
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="7"/>
+    <row r="93" spans="1:10" ht="15" customHeight="1">
+      <c r="B93" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="H93" s="4"/>
       <c r="I93" s="29"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" ht="15" customHeight="1">
+    <row r="94" spans="1:10" ht="15" customHeight="1">
+      <c r="B94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7"/>
       <c r="H94" s="4"/>
       <c r="I94" s="29"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" ht="15" customHeight="1">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+    <row r="95" spans="1:10" ht="15" customHeight="1">
+      <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="H95" s="4"/>
       <c r="I95" s="29"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" ht="15" customHeight="1">
-      <c r="B96" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+    <row r="96" spans="1:10" ht="15" customHeight="1">
       <c r="H96" s="4"/>
       <c r="I96" s="29"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:20" ht="15" customHeight="1">
-      <c r="B97" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="17">
-        <v>6</v>
-      </c>
+    <row r="97" spans="2:10" ht="15" customHeight="1">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -36275,106 +36383,110 @@
       <c r="I97" s="29"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="2:20" ht="15" customHeight="1">
-      <c r="B98" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="17">
-        <v>21</v>
-      </c>
+    <row r="98" spans="2:10" ht="15" customHeight="1">
+      <c r="B98" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="29"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="2:20" ht="15" customHeight="1">
-      <c r="B99" s="32" t="s">
-        <v>18</v>
+    <row r="99" spans="2:10" ht="15" customHeight="1">
+      <c r="B99" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C99" s="17">
         <v>6</v>
       </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="29"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="2:20" ht="15" customHeight="1">
-      <c r="B100" s="33" t="s">
-        <v>19</v>
+    <row r="100" spans="2:10" ht="15" customHeight="1">
+      <c r="B100" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C100" s="17">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="29"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="2:20" ht="15" customHeight="1">
-      <c r="B101" s="34" t="s">
-        <v>20</v>
+    <row r="101" spans="2:10" ht="15" customHeight="1">
+      <c r="B101" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C101" s="17">
-        <v>17</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>6</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="29"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:20" ht="15" customHeight="1">
+    <row r="102" spans="2:10" ht="15" customHeight="1">
+      <c r="B102" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="17">
+        <v>11</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="29"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:20" ht="15" customHeight="1">
+    <row r="103" spans="2:10" ht="15" customHeight="1">
+      <c r="B103" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="17">
+        <v>17</v>
+      </c>
+      <c r="E103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="29"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:20" ht="15" customHeight="1">
+    <row r="104" spans="2:10" ht="15" customHeight="1">
       <c r="H104" s="4"/>
       <c r="I104" s="29"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="2:20" ht="15" customHeight="1">
+    <row r="105" spans="2:10" ht="15" customHeight="1">
       <c r="H105" s="4"/>
       <c r="I105" s="29"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="2:20" ht="15" customHeight="1">
-      <c r="C106" s="8"/>
+    <row r="106" spans="2:10" ht="15" customHeight="1">
       <c r="H106" s="4"/>
       <c r="I106" s="29"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="2:20" ht="15" customHeight="1"/>
-    <row r="108" spans="2:20" ht="15" customHeight="1"/>
-    <row r="109" spans="2:20" ht="15" customHeight="1"/>
-    <row r="110" spans="2:20" ht="15" customHeight="1"/>
-    <row r="111" spans="2:20" ht="15" customHeight="1"/>
-    <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-    </row>
-    <row r="113" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-    </row>
+    <row r="107" spans="2:10" ht="15" customHeight="1">
+      <c r="H107" s="4"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:10" ht="15" customHeight="1">
+      <c r="C108" s="8"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" ht="15" customHeight="1"/>
+    <row r="110" spans="2:10" ht="15" customHeight="1"/>
+    <row r="111" spans="2:10" ht="15" customHeight="1"/>
+    <row r="112" spans="2:10" ht="15" customHeight="1"/>
+    <row r="113" spans="11:20" ht="15" customHeight="1"/>
     <row r="114" spans="11:20" ht="16.5" customHeight="1">
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -36435,7 +36547,7 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="11:20" ht="15" customHeight="1">
+    <row r="119" spans="11:20" ht="16.5" customHeight="1">
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
@@ -36447,7 +36559,7 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="11:20" ht="15" customHeight="1">
+    <row r="120" spans="11:20" ht="16.5" customHeight="1">
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
@@ -36723,7 +36835,7 @@
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="11:20">
+    <row r="143" spans="11:20" ht="15" customHeight="1">
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
@@ -36735,7 +36847,7 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="11:20">
+    <row r="144" spans="11:20" ht="15" customHeight="1">
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
@@ -36783,16 +36895,40 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
     </row>
+    <row r="148" spans="11:20">
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+    </row>
+    <row r="149" spans="11:20">
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C61:C79" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C63:C81" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I79" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I81" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B7A22-3A28-4FC0-AD11-D0185B773187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD669A-41F9-4F82-9035-643FBBAC4B6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -193,19 +193,10 @@
     <t>Design prototype, sequence, use case description View the business results "Team" app</t>
   </si>
   <si>
-    <t>Design prototype, sequence, use case description View business results graph "Employees" app</t>
-  </si>
-  <si>
     <t>Design prototype, sequence, use case description View business results the week "Team" app</t>
   </si>
   <si>
     <t>Design prototype, sequence, use case description View business results the week "Room" app</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app</t>
-  </si>
-  <si>
-    <t>Design prototype, sequence, use case description View business results the week "Employees" app</t>
   </si>
   <si>
     <t>Design prototype, sequence, use case description View compare business results "Rooms" app</t>
@@ -431,12 +422,48 @@
   <si>
     <t>Design prototype, sequence, use case description View statistic - report website</t>
   </si>
+  <si>
+    <t>Code Front-end, back-end  Export file website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app, Add "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end Add "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View business results the week "Employees" app, Edit "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View business results graph "Employees" app, Delete "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end Edit "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end Delete "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Test  Export file website</t>
+  </si>
+  <si>
+    <t>Test  Add "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Test  Edit "Team &amp; Room" Website</t>
+  </si>
+  <si>
+    <t>Test  Delete "Team &amp; Room" Website</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,6 +663,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -976,7 +1009,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1216,6 +1249,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -1352,14 +1388,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$82</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$90</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Employees" app</c:v>
+                  <c:v>Design prototype, sequence, use case description View business results the week "Employees" app, Edit "Team &amp; Room" Website</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app</c:v>
+                  <c:v>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app, Add "Team &amp; Room" Website</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Design prototype, sequence, use case description View business results the week "Team" app</c:v>
@@ -1368,7 +1404,7 @@
                   <c:v>Design prototype, sequence, use case description View business results the week "Room" app</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Design prototype, sequence, use case description View business results graph "Employees" app</c:v>
+                  <c:v>Design prototype, sequence, use case description View business results graph "Employees" app, Delete "Team &amp; Room" Website</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Design prototype, sequence, use case description Search business results graph "Employees" app</c:v>
@@ -1533,238 +1569,262 @@
                   <c:v>Code Front-end, back-end  Import file website</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>Code Front-end, back-end  Export file website</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Code Front-end, back-end Add "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Code Front-end, back-end Edit "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Code Front-end, back-end Delete "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>Test View business results View statistic - report</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>Test View personal information app and "Forgot password" website</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Test  Export file website</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Test  Add "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Test  Edit "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Test  Delete "Team &amp; Room" Website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$D$4:$D$82</c:f>
+              <c:f>'Dữ liệu dự án'!$D$4:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43928</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43929</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43930</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43935</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43936</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43937</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43938</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43941</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43942</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43944</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43945</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43948</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43949</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43950</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43951</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43955</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43958</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43962</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43923</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43927</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43928</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43929</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43931</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43934</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43935</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43937</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43941</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43943</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43944</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43948</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43949</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43951</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43955</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43955</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43923</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43927</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43928</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43929</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43931</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43934</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43935</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43937</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43941</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43943</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43944</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43948</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43949</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43951</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43955</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43955</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43922</c:v>
@@ -1776,61 +1836,85 @@
                   <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="65">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>43939</c:v>
+                <c:pt idx="68">
+                  <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43956</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43957</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43958</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43959</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43962</c:v>
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,14 +3409,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$82</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$90</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>Design prototype, sequence, use case description View business results the week "Employees" app</c:v>
+                  <c:v>Design prototype, sequence, use case description View business results the week "Employees" app, Edit "Team &amp; Room" Website</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app</c:v>
+                  <c:v>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app, Add "Team &amp; Room" Website</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Design prototype, sequence, use case description View business results the week "Team" app</c:v>
@@ -3341,7 +3425,7 @@
                   <c:v>Design prototype, sequence, use case description View business results the week "Room" app</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Design prototype, sequence, use case description View business results graph "Employees" app</c:v>
+                  <c:v>Design prototype, sequence, use case description View business results graph "Employees" app, Delete "Team &amp; Room" Website</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Design prototype, sequence, use case description Search business results graph "Employees" app</c:v>
@@ -3506,91 +3590,115 @@
                   <c:v>Code Front-end, back-end  Import file website</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>Code Front-end, back-end  Export file website</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Code Front-end, back-end Add "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Code Front-end, back-end Edit "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Code Front-end, back-end Delete "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>Test View business results View statistic - report</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>Test View personal information app and "Forgot password" website</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Test  Export file website</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Test  Add "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Test  Edit "Team &amp; Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Test  Delete "Team &amp; Room" Website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$F$4:$F$82</c:f>
+              <c:f>'Dữ liệu dự án'!$F$4:$F$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -3602,19 +3710,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -3626,7 +3734,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
@@ -3638,13 +3746,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
@@ -3653,34 +3761,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2</c:v>
@@ -3689,13 +3797,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1</c:v>
@@ -3704,34 +3812,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>2</c:v>
@@ -3749,28 +3857,28 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1</c:v>
@@ -3779,34 +3887,58 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="80">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="81">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="82">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>126</c:v>
+                <c:pt idx="86">
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,7 +4228,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$99:$B$103</c:f>
+              <c:f>'Dữ liệu dự án'!$B$107:$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4119,7 +4251,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$99:$C$103</c:f>
+              <c:f>'Dữ liệu dự án'!$C$107:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4349,7 +4481,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$87:$B$90</c:f>
+              <c:f>'Dữ liệu dự án'!$B$95:$B$98</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4369,7 +4501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$87:$C$90</c:f>
+              <c:f>'Dữ liệu dự án'!$C$95:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4543,7 +4675,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$94:$B$95</c:f>
+              <c:f>'Dữ liệu dự án'!$B$102:$B$103</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4557,7 +4689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$94:$C$95</c:f>
+              <c:f>'Dữ liệu dự án'!$C$102:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5737,7 +5869,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
       <c r="A1" s="66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -5873,7 +6005,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N5" s="73"/>
       <c r="O5" s="40"/>
@@ -6125,7 +6257,7 @@
         <v>30</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -33794,10 +33926,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:T149"/>
+  <dimension ref="A2:T157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33821,7 +33953,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -33856,7 +33988,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
@@ -33865,11 +33997,11 @@
         <v>43927</v>
       </c>
       <c r="E4" s="10">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" ref="F4:F69" si="0">E4-D4</f>
-        <v>1</v>
+        <f t="shared" ref="F4:F73" si="0">E4-D4</f>
+        <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>0</v>
@@ -33889,16 +34021,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="10">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="E5" s="10">
-        <v>43929</v>
+        <v>43931</v>
       </c>
       <c r="F5" s="24">
         <f t="shared" si="0"/>
@@ -33908,7 +34040,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>23</v>
@@ -33922,20 +34054,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="10">
-        <v>43929</v>
+        <v>43932</v>
       </c>
       <c r="E6" s="10">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>0</v>
@@ -33955,20 +34087,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="10">
-        <v>43930</v>
+        <v>43935</v>
       </c>
       <c r="E7" s="10">
-        <v>43931</v>
+        <v>43937</v>
       </c>
       <c r="F7" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>0</v>
@@ -33988,26 +34120,26 @@
         <v>5</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="10">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="E8" s="10">
-        <v>43932</v>
+        <v>43941</v>
       </c>
       <c r="F8" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="23">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>23</v>
@@ -34027,14 +34159,14 @@
         <v>17</v>
       </c>
       <c r="D9" s="10">
-        <v>43934</v>
+        <v>43941</v>
       </c>
       <c r="E9" s="10">
-        <v>43935</v>
+        <v>43943</v>
       </c>
       <c r="F9" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>0</v>
@@ -34060,14 +34192,14 @@
         <v>17</v>
       </c>
       <c r="D10" s="10">
-        <v>43935</v>
+        <v>43944</v>
       </c>
       <c r="E10" s="10">
-        <v>43936</v>
+        <v>43946</v>
       </c>
       <c r="F10" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>0</v>
@@ -34093,10 +34225,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="10">
-        <v>43936</v>
+        <v>43948</v>
       </c>
       <c r="E11" s="10">
-        <v>43937</v>
+        <v>43949</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
@@ -34106,7 +34238,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>23</v>
@@ -34126,10 +34258,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="10">
-        <v>43937</v>
+        <v>43949</v>
       </c>
       <c r="E12" s="10">
-        <v>43938</v>
+        <v>43950</v>
       </c>
       <c r="F12" s="24">
         <f t="shared" si="0"/>
@@ -34139,7 +34271,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>23</v>
@@ -34159,10 +34291,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="10">
-        <v>43938</v>
+        <v>43951</v>
       </c>
       <c r="E13" s="10">
-        <v>43939</v>
+        <v>43952</v>
       </c>
       <c r="F13" s="24">
         <f t="shared" si="0"/>
@@ -34172,7 +34304,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>23</v>
@@ -34192,14 +34324,14 @@
         <v>17</v>
       </c>
       <c r="D14" s="10">
-        <v>43941</v>
+        <v>43955</v>
       </c>
       <c r="E14" s="10">
-        <v>43942</v>
+        <v>43957</v>
       </c>
       <c r="F14" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>0</v>
@@ -34219,20 +34351,20 @@
         <v>12</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="10">
-        <v>43942</v>
+        <v>43958</v>
       </c>
       <c r="E15" s="10">
-        <v>43943</v>
+        <v>43960</v>
       </c>
       <c r="F15" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>0</v>
@@ -34258,14 +34390,14 @@
         <v>17</v>
       </c>
       <c r="D16" s="10">
-        <v>43943</v>
+        <v>43962</v>
       </c>
       <c r="E16" s="10">
-        <v>43944</v>
+        <v>43964</v>
       </c>
       <c r="F16" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>0</v>
@@ -34285,20 +34417,20 @@
         <v>14</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="10">
-        <v>43944</v>
+        <v>43965</v>
       </c>
       <c r="E17" s="10">
-        <v>43945</v>
+        <v>43967</v>
       </c>
       <c r="F17" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>0</v>
@@ -34318,20 +34450,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="10">
-        <v>43945</v>
+        <v>43969</v>
       </c>
       <c r="E18" s="10">
-        <v>43946</v>
+        <v>43971</v>
       </c>
       <c r="F18" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>0</v>
@@ -34351,16 +34483,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="10">
-        <v>43948</v>
+        <v>43972</v>
       </c>
       <c r="E19" s="10">
-        <v>43949</v>
+        <v>43973</v>
       </c>
       <c r="F19" s="24">
         <f t="shared" si="0"/>
@@ -34370,7 +34502,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>23</v>
@@ -34384,16 +34516,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="10">
-        <v>43949</v>
+        <v>43976</v>
       </c>
       <c r="E20" s="10">
-        <v>43950</v>
+        <v>43977</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="0"/>
@@ -34403,7 +34535,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>23</v>
@@ -34417,16 +34549,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="10">
-        <v>43950</v>
+        <v>43978</v>
       </c>
       <c r="E21" s="10">
-        <v>43951</v>
+        <v>43979</v>
       </c>
       <c r="F21" s="24">
         <f t="shared" si="0"/>
@@ -34436,7 +34568,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>23</v>
@@ -34450,20 +34582,20 @@
         <v>19</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="10">
-        <v>43951</v>
+        <v>43983</v>
       </c>
       <c r="E22" s="10">
-        <v>43952</v>
+        <v>43985</v>
       </c>
       <c r="F22" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>0</v>
@@ -34483,16 +34615,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="10">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="E23" s="10">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="F23" s="24">
         <f t="shared" si="0"/>
@@ -34502,7 +34634,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>23</v>
@@ -34516,16 +34648,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="10">
-        <v>43958</v>
+        <v>43990</v>
       </c>
       <c r="E24" s="10">
-        <v>43960</v>
+        <v>43992</v>
       </c>
       <c r="F24" s="24">
         <f t="shared" si="0"/>
@@ -34535,7 +34667,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>23</v>
@@ -34549,16 +34681,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="10">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="E25" s="10">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="0"/>
@@ -34568,7 +34700,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>23</v>
@@ -34582,7 +34714,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>16</v>
@@ -34591,11 +34723,11 @@
         <v>43922</v>
       </c>
       <c r="E26" s="10">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="23">
@@ -34611,20 +34743,20 @@
         <v>24</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="10">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="E27" s="10">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="23">
@@ -34640,20 +34772,20 @@
         <v>25</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="10">
-        <v>43927</v>
+        <v>43930</v>
       </c>
       <c r="E28" s="10">
-        <v>43928</v>
+        <v>43932</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="23">
@@ -34669,16 +34801,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="10">
-        <v>43928</v>
+        <v>43934</v>
       </c>
       <c r="E29" s="10">
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="0"/>
@@ -34686,7 +34818,7 @@
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>23</v>
@@ -34698,16 +34830,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="10">
-        <v>43929</v>
+        <v>43937</v>
       </c>
       <c r="E30" s="10">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="0"/>
@@ -34715,7 +34847,7 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>23</v>
@@ -34727,20 +34859,20 @@
         <v>28</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="10">
-        <v>43931</v>
+        <v>43941</v>
       </c>
       <c r="E31" s="10">
-        <v>43932</v>
+        <v>43943</v>
       </c>
       <c r="F31" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="23">
@@ -34756,20 +34888,20 @@
         <v>29</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="10">
-        <v>43934</v>
+        <v>43944</v>
       </c>
       <c r="E32" s="10">
-        <v>43935</v>
+        <v>43946</v>
       </c>
       <c r="F32" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="23">
@@ -34785,24 +34917,24 @@
         <v>30</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="10">
-        <v>43935</v>
+        <v>43948</v>
       </c>
       <c r="E33" s="10">
-        <v>43937</v>
+        <v>43949</v>
       </c>
       <c r="F33" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="23">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I33" s="31" t="s">
         <v>23</v>
@@ -34814,20 +34946,20 @@
         <v>31</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="10">
-        <v>43937</v>
+        <v>43950</v>
       </c>
       <c r="E34" s="10">
-        <v>43938</v>
+        <v>43952</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="23">
@@ -34843,16 +34975,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="10">
-        <v>43941</v>
+        <v>43955</v>
       </c>
       <c r="E35" s="10">
-        <v>43943</v>
+        <v>43957</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="0"/>
@@ -34860,7 +34992,7 @@
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I35" s="31" t="s">
         <v>23</v>
@@ -34872,20 +35004,20 @@
         <v>33</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="10">
-        <v>43943</v>
+        <v>43958</v>
       </c>
       <c r="E36" s="10">
-        <v>43944</v>
+        <v>43960</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="23">
@@ -34901,16 +35033,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="10">
-        <v>43944</v>
+        <v>43962</v>
       </c>
       <c r="E37" s="10">
-        <v>43946</v>
+        <v>43964</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="0"/>
@@ -34918,7 +35050,7 @@
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>23</v>
@@ -34930,20 +35062,20 @@
         <v>35</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="10">
-        <v>43948</v>
+        <v>43965</v>
       </c>
       <c r="E38" s="10">
-        <v>43949</v>
+        <v>43967</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="23">
@@ -34959,16 +35091,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="10">
-        <v>43949</v>
+        <v>43969</v>
       </c>
       <c r="E39" s="10">
-        <v>43951</v>
+        <v>43971</v>
       </c>
       <c r="F39" s="24">
         <f t="shared" si="0"/>
@@ -34976,7 +35108,7 @@
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>23</v>
@@ -34988,20 +35120,20 @@
         <v>37</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="10">
-        <v>43951</v>
+        <v>43972</v>
       </c>
       <c r="E40" s="10">
-        <v>43952</v>
+        <v>43974</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="23">
@@ -35017,16 +35149,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="10">
-        <v>43955</v>
+        <v>43976</v>
       </c>
       <c r="E41" s="10">
-        <v>43957</v>
+        <v>43978</v>
       </c>
       <c r="F41" s="24">
         <f t="shared" ref="F41" si="1">E41-D41</f>
@@ -35034,7 +35166,7 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>23</v>
@@ -35046,16 +35178,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="10">
-        <v>43955</v>
+        <v>43979</v>
       </c>
       <c r="E42" s="10">
-        <v>43957</v>
+        <v>43981</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="0"/>
@@ -35063,7 +35195,7 @@
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>23</v>
@@ -35075,7 +35207,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" s="58" t="s">
         <v>18</v>
@@ -35084,11 +35216,11 @@
         <v>43922</v>
       </c>
       <c r="E43" s="10">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="23">
@@ -35104,20 +35236,20 @@
         <v>41</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="E44" s="10">
-        <v>43924</v>
+        <v>43929</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="23">
@@ -35133,20 +35265,20 @@
         <v>42</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10">
-        <v>43927</v>
+        <v>43930</v>
       </c>
       <c r="E45" s="10">
-        <v>43928</v>
+        <v>43932</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="23">
@@ -35162,16 +35294,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="10">
-        <v>43928</v>
+        <v>43934</v>
       </c>
       <c r="E46" s="10">
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="0"/>
@@ -35179,7 +35311,7 @@
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>23</v>
@@ -35191,16 +35323,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="10">
-        <v>43929</v>
+        <v>43937</v>
       </c>
       <c r="E47" s="10">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="0"/>
@@ -35208,7 +35340,7 @@
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>23</v>
@@ -35220,20 +35352,20 @@
         <v>45</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="10">
-        <v>43931</v>
+        <v>43941</v>
       </c>
       <c r="E48" s="10">
-        <v>43932</v>
+        <v>43943</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="23">
@@ -35249,20 +35381,20 @@
         <v>46</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="10">
-        <v>43934</v>
+        <v>43944</v>
       </c>
       <c r="E49" s="10">
-        <v>43935</v>
+        <v>43946</v>
       </c>
       <c r="F49" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="23">
@@ -35278,24 +35410,24 @@
         <v>47</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="10">
-        <v>43935</v>
+        <v>43948</v>
       </c>
       <c r="E50" s="10">
-        <v>43937</v>
+        <v>43949</v>
       </c>
       <c r="F50" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="23">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>23</v>
@@ -35307,20 +35439,20 @@
         <v>48</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10">
-        <v>43937</v>
+        <v>43950</v>
       </c>
       <c r="E51" s="10">
-        <v>43938</v>
+        <v>43952</v>
       </c>
       <c r="F51" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="23">
@@ -35336,16 +35468,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="10">
-        <v>43941</v>
+        <v>43955</v>
       </c>
       <c r="E52" s="10">
-        <v>43943</v>
+        <v>43957</v>
       </c>
       <c r="F52" s="24">
         <f t="shared" si="0"/>
@@ -35353,7 +35485,7 @@
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I52" s="31" t="s">
         <v>23</v>
@@ -35365,20 +35497,20 @@
         <v>50</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="10">
-        <v>43943</v>
+        <v>43958</v>
       </c>
       <c r="E53" s="10">
-        <v>43944</v>
+        <v>43960</v>
       </c>
       <c r="F53" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="23">
@@ -35394,16 +35526,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="10">
-        <v>43944</v>
+        <v>43962</v>
       </c>
       <c r="E54" s="10">
-        <v>43946</v>
+        <v>43964</v>
       </c>
       <c r="F54" s="24">
         <f t="shared" si="0"/>
@@ -35411,7 +35543,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>23</v>
@@ -35423,20 +35555,20 @@
         <v>52</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="10">
-        <v>43948</v>
+        <v>43965</v>
       </c>
       <c r="E55" s="10">
-        <v>43949</v>
+        <v>43967</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="23">
@@ -35452,16 +35584,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="10">
-        <v>43949</v>
+        <v>43969</v>
       </c>
       <c r="E56" s="10">
-        <v>43951</v>
+        <v>43971</v>
       </c>
       <c r="F56" s="24">
         <f t="shared" si="0"/>
@@ -35469,7 +35601,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" s="31" t="s">
         <v>23</v>
@@ -35481,20 +35613,20 @@
         <v>54</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="10">
-        <v>43951</v>
+        <v>43972</v>
       </c>
       <c r="E57" s="10">
-        <v>43952</v>
+        <v>43974</v>
       </c>
       <c r="F57" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="23">
@@ -35510,16 +35642,16 @@
         <v>55</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C58" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="10">
-        <v>43955</v>
+        <v>43976</v>
       </c>
       <c r="E58" s="10">
-        <v>43957</v>
+        <v>43978</v>
       </c>
       <c r="F58" s="24">
         <f t="shared" si="0"/>
@@ -35527,7 +35659,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I58" s="31" t="s">
         <v>23</v>
@@ -35539,16 +35671,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="10">
-        <v>43955</v>
+        <v>43979</v>
       </c>
       <c r="E59" s="10">
-        <v>43957</v>
+        <v>43981</v>
       </c>
       <c r="F59" s="24">
         <f t="shared" ref="F59" si="2">E59-D59</f>
@@ -35556,7 +35688,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I59" s="31" t="s">
         <v>23</v>
@@ -35568,7 +35700,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>19</v>
@@ -35585,7 +35717,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="23">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I60" s="31" t="s">
         <v>23</v>
@@ -35597,7 +35729,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>40</v>
@@ -35614,7 +35746,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="23">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I61" s="31" t="s">
         <v>23</v>
@@ -35626,7 +35758,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>19</v>
@@ -35638,12 +35770,12 @@
         <v>43959</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F62:F66" si="3">E62-D62</f>
         <v>11</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="23">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I62" s="31" t="s">
         <v>23</v>
@@ -35654,123 +35786,115 @@
       <c r="A63" s="65">
         <v>60</v>
       </c>
-      <c r="B63" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>20</v>
+      <c r="B63" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D63" s="10">
-        <v>43922</v>
+        <v>43960</v>
       </c>
       <c r="E63" s="10">
-        <v>43924</v>
+        <v>43967</v>
       </c>
       <c r="F63" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G63" s="11"/>
       <c r="H63" s="23">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I63" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="65">
         <v>61</v>
       </c>
-      <c r="B64" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>20</v>
+      <c r="B64" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D64" s="10">
-        <v>43927</v>
+        <v>43969</v>
       </c>
       <c r="E64" s="10">
-        <v>43928</v>
+        <v>43975</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G64" s="11"/>
       <c r="H64" s="23">
-        <v>18</v>
-      </c>
-      <c r="I64" s="31" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I64" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="65">
         <v>62</v>
       </c>
-      <c r="B65" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>20</v>
+      <c r="B65" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D65" s="10">
-        <v>43929</v>
+        <v>43976</v>
       </c>
       <c r="E65" s="10">
-        <v>43930</v>
+        <v>43982</v>
       </c>
       <c r="F65" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G65" s="11"/>
       <c r="H65" s="23">
-        <v>18</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I65" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="65">
         <v>63</v>
       </c>
-      <c r="B66" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>20</v>
+      <c r="B66" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D66" s="10">
-        <v>43930</v>
+        <v>43983</v>
       </c>
       <c r="E66" s="10">
-        <v>43931</v>
+        <v>43992</v>
       </c>
       <c r="F66" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G66" s="11"/>
       <c r="H66" s="23">
-        <v>18</v>
-      </c>
-      <c r="I66" s="31" t="s">
-        <v>23</v>
+        <v>72</v>
+      </c>
+      <c r="I66" s="81" t="s">
+        <v>127</v>
       </c>
       <c r="J66" s="23"/>
     </row>
@@ -35779,20 +35903,20 @@
         <v>64</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="10">
-        <v>43931</v>
+        <v>43922</v>
       </c>
       <c r="E67" s="10">
-        <v>43932</v>
+        <v>43924</v>
       </c>
       <c r="F67" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>0</v>
@@ -35810,16 +35934,16 @@
         <v>65</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="10">
-        <v>43934</v>
+        <v>43927</v>
       </c>
       <c r="E68" s="10">
-        <v>43936</v>
+        <v>43929</v>
       </c>
       <c r="F68" s="24">
         <f t="shared" si="0"/>
@@ -35829,7 +35953,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I68" s="31" t="s">
         <v>23</v>
@@ -35841,26 +35965,26 @@
         <v>66</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="10">
-        <v>43937</v>
+        <v>43930</v>
       </c>
       <c r="E69" s="10">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="F69" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H69" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>23</v>
@@ -35872,26 +35996,26 @@
         <v>67</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="10">
-        <v>43939</v>
+        <v>43934</v>
       </c>
       <c r="E70" s="10">
-        <v>43941</v>
+        <v>43935</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" ref="F70:F81" si="3">E70-D70</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H70" s="23">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I70" s="31" t="s">
         <v>23</v>
@@ -35903,26 +36027,26 @@
         <v>68</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="10">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="E71" s="10">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="F71" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H71" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I71" s="31" t="s">
         <v>23</v>
@@ -35934,26 +36058,26 @@
         <v>69</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="10">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="E72" s="10">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="F72" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H72" s="23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I72" s="31" t="s">
         <v>23</v>
@@ -35965,20 +36089,20 @@
         <v>70</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="10">
-        <v>43948</v>
+        <v>43944</v>
       </c>
       <c r="E73" s="10">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="F73" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>0</v>
@@ -35996,26 +36120,26 @@
         <v>71</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="10">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="E74" s="10">
-        <v>43952</v>
+        <v>43949</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="F74:F89" si="4">E74-D74</f>
+        <v>1</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H74" s="23">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I74" s="31" t="s">
         <v>23</v>
@@ -36027,20 +36151,20 @@
         <v>72</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="10">
+        <v>43950</v>
+      </c>
+      <c r="E75" s="10">
         <v>43952</v>
       </c>
-      <c r="E75" s="10">
-        <v>43953</v>
-      </c>
       <c r="F75" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>0</v>
@@ -36058,7 +36182,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="63" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>20</v>
@@ -36067,11 +36191,11 @@
         <v>43955</v>
       </c>
       <c r="E76" s="10">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>0</v>
@@ -36089,20 +36213,20 @@
         <v>74</v>
       </c>
       <c r="B77" s="63" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="10">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="E77" s="10">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="F77" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>0</v>
@@ -36120,20 +36244,20 @@
         <v>75</v>
       </c>
       <c r="B78" s="63" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="10">
-        <v>43957</v>
+        <v>43962</v>
       </c>
       <c r="E78" s="10">
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>0</v>
@@ -36151,20 +36275,20 @@
         <v>76</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="10">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="E79" s="10">
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="F79" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>0</v>
@@ -36182,20 +36306,20 @@
         <v>77</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="10">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="E80" s="10">
-        <v>43960</v>
+        <v>43971</v>
       </c>
       <c r="F80" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>0</v>
@@ -36213,20 +36337,20 @@
         <v>78</v>
       </c>
       <c r="B81" s="63" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="10">
-        <v>43962</v>
+        <v>43972</v>
       </c>
       <c r="E81" s="10">
-        <v>43963</v>
+        <v>43974</v>
       </c>
       <c r="F81" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>0</v>
@@ -36240,95 +36364,263 @@
       <c r="J81" s="23"/>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1">
-      <c r="A82" s="79" t="s">
+      <c r="A82" s="65">
+        <v>79</v>
+      </c>
+      <c r="B82" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="10">
+        <v>43976</v>
+      </c>
+      <c r="E82" s="10">
+        <v>43978</v>
+      </c>
+      <c r="F82" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="23">
+        <v>18</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="23"/>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1">
+      <c r="A83" s="65">
+        <v>80</v>
+      </c>
+      <c r="B83" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="10">
+        <v>43979</v>
+      </c>
+      <c r="E83" s="10">
+        <v>43980</v>
+      </c>
+      <c r="F83" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="23">
+        <v>9</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="23"/>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1">
+      <c r="A84" s="65">
+        <v>81</v>
+      </c>
+      <c r="B84" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="10">
+        <v>43981</v>
+      </c>
+      <c r="E84" s="10">
+        <v>43982</v>
+      </c>
+      <c r="F84" s="24">
+        <f t="shared" ref="F84:F87" si="5">E84-D84</f>
+        <v>1</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="23">
+        <v>9</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="23"/>
+    </row>
+    <row r="85" spans="1:10" ht="15" customHeight="1">
+      <c r="A85" s="65">
+        <v>82</v>
+      </c>
+      <c r="B85" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="10">
+        <v>43983</v>
+      </c>
+      <c r="E85" s="10">
+        <v>43984</v>
+      </c>
+      <c r="F85" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="23">
+        <v>9</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="23"/>
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1">
+      <c r="A86" s="65">
+        <v>83</v>
+      </c>
+      <c r="B86" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="10">
+        <v>43984</v>
+      </c>
+      <c r="E86" s="10">
+        <v>43985</v>
+      </c>
+      <c r="F86" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="23">
+        <v>9</v>
+      </c>
+      <c r="I86" s="31"/>
+      <c r="J86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1">
+      <c r="A87" s="65">
+        <v>84</v>
+      </c>
+      <c r="B87" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="10">
+        <v>43986</v>
+      </c>
+      <c r="E87" s="10">
+        <v>43988</v>
+      </c>
+      <c r="F87" s="24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="23">
+        <v>18</v>
+      </c>
+      <c r="I87" s="31"/>
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" ht="15" customHeight="1">
+      <c r="A88" s="65">
+        <v>85</v>
+      </c>
+      <c r="B88" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="10">
+        <v>43990</v>
+      </c>
+      <c r="E88" s="10">
+        <v>43992</v>
+      </c>
+      <c r="F88" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="23">
+        <v>18</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="23"/>
+    </row>
+    <row r="89" spans="1:10" ht="15" customHeight="1">
+      <c r="A89" s="65">
+        <v>86</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="10">
+        <v>43993</v>
+      </c>
+      <c r="E89" s="10">
+        <v>43995</v>
+      </c>
+      <c r="F89" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="23">
+        <v>18</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="23"/>
+    </row>
+    <row r="90" spans="1:10" ht="15" customHeight="1">
+      <c r="A90" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="25">
-        <f>SUM(F4:F81)</f>
-        <v>126</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="25">
-        <f>SUM(H4:H81)</f>
-        <v>1778</v>
-      </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="25">
-        <f>SUM(J4:J81)</f>
+      <c r="B90" s="80"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="25">
+        <f>SUM(F4:F89)</f>
+        <v>198</v>
+      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="25">
+        <f>SUM(H4:H89)</f>
+        <v>1752</v>
+      </c>
+      <c r="I90" s="28"/>
+      <c r="J90" s="25">
+        <f>SUM(J4:J89)</f>
         <v>381</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1">
-      <c r="H83" s="4"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1">
-      <c r="H84" s="4"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1">
-      <c r="H85" s="4"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1">
-      <c r="B86" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1">
-      <c r="B87" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="6">
-        <v>0</v>
-      </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1">
-      <c r="B88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="6">
-        <v>0</v>
-      </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1">
-      <c r="B89" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1">
-      <c r="B90" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="6">
-        <v>0</v>
-      </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="H91" s="4"/>
@@ -36341,117 +36633,96 @@
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1">
-      <c r="B93" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="1"/>
       <c r="H93" s="4"/>
       <c r="I93" s="29"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1">
-      <c r="B94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="7"/>
+      <c r="B94" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1"/>
       <c r="H94" s="4"/>
       <c r="I94" s="29"/>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="15" customHeight="1">
       <c r="B95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0</v>
+      </c>
       <c r="H95" s="4"/>
       <c r="I95" s="29"/>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1">
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="29"/>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="B97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="29"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1">
-      <c r="B98" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="29"/>
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1">
-      <c r="B99" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="17">
-        <v>6</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="29"/>
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1">
-      <c r="B100" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="17">
-        <v>21</v>
-      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="29"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1">
-      <c r="B101" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="17">
-        <v>6</v>
-      </c>
+      <c r="B101" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1"/>
       <c r="H101" s="4"/>
       <c r="I101" s="29"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1">
-      <c r="B102" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="17">
-        <v>11</v>
-      </c>
+      <c r="B102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="7"/>
       <c r="H102" s="4"/>
       <c r="I102" s="29"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1">
-      <c r="B103" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="17">
-        <v>17</v>
-      </c>
-      <c r="E103" s="4"/>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="7"/>
       <c r="H103" s="4"/>
       <c r="I103" s="29"/>
       <c r="J103" s="4"/>
@@ -36462,128 +36733,121 @@
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="29"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1">
+      <c r="B106" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="29"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1">
+      <c r="B107" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="17">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="29"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1">
-      <c r="C108" s="8"/>
+      <c r="B108" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="17">
+        <v>21</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="29"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" ht="15" customHeight="1"/>
-    <row r="110" spans="2:10" ht="15" customHeight="1"/>
-    <row r="111" spans="2:10" ht="15" customHeight="1"/>
-    <row r="112" spans="2:10" ht="15" customHeight="1"/>
-    <row r="113" spans="11:20" ht="15" customHeight="1"/>
-    <row r="114" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
-    </row>
-    <row r="115" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-    </row>
-    <row r="116" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-    </row>
-    <row r="117" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-    </row>
-    <row r="118" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-    </row>
-    <row r="119" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-    </row>
-    <row r="120" spans="11:20" ht="16.5" customHeight="1">
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-    </row>
-    <row r="121" spans="11:20" ht="15" customHeight="1">
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-    </row>
-    <row r="122" spans="11:20" ht="15" customHeight="1">
+    <row r="109" spans="2:10" ht="15" customHeight="1">
+      <c r="B109" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="17">
+        <v>6</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" ht="15" customHeight="1">
+      <c r="B110" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="17">
+        <v>11</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:10" ht="15" customHeight="1">
+      <c r="B111" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="17">
+        <v>17</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:10" ht="15" customHeight="1">
+      <c r="H112" s="4"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="3:20" ht="15" customHeight="1">
+      <c r="H113" s="4"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="3:20" ht="15" customHeight="1">
+      <c r="H114" s="4"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="3:20" ht="15" customHeight="1">
+      <c r="H115" s="4"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="3:20" ht="15" customHeight="1">
+      <c r="C116" s="8"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="3:20" ht="15" customHeight="1"/>
+    <row r="118" spans="3:20" ht="15" customHeight="1"/>
+    <row r="119" spans="3:20" ht="15" customHeight="1"/>
+    <row r="120" spans="3:20" ht="15" customHeight="1"/>
+    <row r="121" spans="3:20" ht="15" customHeight="1"/>
+    <row r="122" spans="3:20" ht="16.5" customHeight="1">
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
@@ -36595,7 +36859,7 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
     </row>
-    <row r="123" spans="11:20" ht="15" customHeight="1">
+    <row r="123" spans="3:20" ht="16.5" customHeight="1">
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -36607,7 +36871,7 @@
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
     </row>
-    <row r="124" spans="11:20" ht="15" customHeight="1">
+    <row r="124" spans="3:20" ht="16.5" customHeight="1">
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
@@ -36619,7 +36883,7 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
     </row>
-    <row r="125" spans="11:20" ht="15" customHeight="1">
+    <row r="125" spans="3:20" ht="16.5" customHeight="1">
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -36631,7 +36895,7 @@
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
     </row>
-    <row r="126" spans="11:20" ht="15" customHeight="1">
+    <row r="126" spans="3:20" ht="16.5" customHeight="1">
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -36643,7 +36907,7 @@
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
     </row>
-    <row r="127" spans="11:20" ht="15" customHeight="1">
+    <row r="127" spans="3:20" ht="16.5" customHeight="1">
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -36655,7 +36919,7 @@
       <c r="S127" s="4"/>
       <c r="T127" s="4"/>
     </row>
-    <row r="128" spans="11:20" ht="15" customHeight="1">
+    <row r="128" spans="3:20" ht="16.5" customHeight="1">
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -36859,7 +37123,7 @@
       <c r="S144" s="4"/>
       <c r="T144" s="4"/>
     </row>
-    <row r="145" spans="11:20">
+    <row r="145" spans="11:20" ht="15" customHeight="1">
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -36871,7 +37135,7 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="11:20">
+    <row r="146" spans="11:20" ht="15" customHeight="1">
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -36883,7 +37147,7 @@
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
     </row>
-    <row r="147" spans="11:20">
+    <row r="147" spans="11:20" ht="15" customHeight="1">
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
@@ -36895,7 +37159,7 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
     </row>
-    <row r="148" spans="11:20">
+    <row r="148" spans="11:20" ht="15" customHeight="1">
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
@@ -36907,7 +37171,7 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
     </row>
-    <row r="149" spans="11:20">
+    <row r="149" spans="11:20" ht="15" customHeight="1">
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -36919,16 +37183,112 @@
       <c r="S149" s="4"/>
       <c r="T149" s="4"/>
     </row>
+    <row r="150" spans="11:20" ht="15" customHeight="1">
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+    </row>
+    <row r="151" spans="11:20" ht="15" customHeight="1">
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+    </row>
+    <row r="152" spans="11:20" ht="15" customHeight="1">
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+    </row>
+    <row r="153" spans="11:20">
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="11:20">
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+    </row>
+    <row r="155" spans="11:20">
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+    </row>
+    <row r="156" spans="11:20">
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="11:20">
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A90:B90"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C63:C81" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C67:C89" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I81" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I89" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Module3_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD669A-41F9-4F82-9035-643FBBAC4B6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C975CAA-9AF2-4140-883D-B9AACC7D52D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="139">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -390,9 +390,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Test View business results View statistic - report</t>
-  </si>
-  <si>
     <t>Code Front-end View personal information app</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
     <t>Code Front-end, back-end  Import file website</t>
   </si>
   <si>
-    <t>Code Front-end, back-end  View statistic - report website</t>
-  </si>
-  <si>
     <t>Code Front-end, back-end  "Forgot password" website</t>
   </si>
   <si>
@@ -420,16 +414,7 @@
     <t>Design prototype, sequence, use case description Import file website</t>
   </si>
   <si>
-    <t>Design prototype, sequence, use case description View statistic - report website</t>
-  </si>
-  <si>
-    <t>Code Front-end, back-end  Export file website</t>
-  </si>
-  <si>
     <t>Design prototype, sequence, use case description  View details of the weekly business results the "Employees"  app, Add "Team &amp; Room" Website</t>
-  </si>
-  <si>
-    <t>Code Front-end, back-end Add "Team &amp; Room" Website</t>
   </si>
   <si>
     <t>Design prototype, sequence, use case description View business results the week "Employees" app, Edit "Team &amp; Room" Website</t>
@@ -438,32 +423,68 @@
     <t>Design prototype, sequence, use case description View business results graph "Employees" app, Delete "Team &amp; Room" Website</t>
   </si>
   <si>
-    <t>Code Front-end, back-end Edit "Team &amp; Room" Website</t>
-  </si>
-  <si>
-    <t>Code Front-end, back-end Delete "Team &amp; Room" Website</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Test  Export file website</t>
+    <t>Low</t>
   </si>
   <si>
-    <t>Test  Add "Team &amp; Room" Website</t>
+    <t>Code Front-end View happy birthday app</t>
   </si>
   <si>
-    <t>Test  Edit "Team &amp; Room" Website</t>
+    <t>Code Back-end View happy birthday app</t>
   </si>
   <si>
-    <t>Test  Delete "Team &amp; Room" Website</t>
+    <t>Code Front-end, back-end "Edit  Room" Website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Delete  Room" Website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  Template excel website</t>
+  </si>
+  <si>
+    <t>Test  Template excel website</t>
+  </si>
+  <si>
+    <t>Test  "Edit  Room" Website</t>
+  </si>
+  <si>
+    <t>Test  "Delete  Room" Website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description View happy birthday app</t>
+  </si>
+  <si>
+    <t>Test  View happy birthday app</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Edit room</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Delete room website, View room website</t>
+  </si>
+  <si>
+    <t>Design prototype, sequence, use case description Add room, Template excel website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end  "View Room" Website</t>
+  </si>
+  <si>
+    <t>Code Front-end, back-end "Add  Room"</t>
+  </si>
+  <si>
+    <t>Test "View Room" Website</t>
+  </si>
+  <si>
+    <t>Test  "Add Room" Website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,6 +690,18 @@
     <font>
       <sz val="10"/>
       <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFE70E"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1009,7 +1042,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1204,6 +1237,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,9 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1388,9 +1427,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$90</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$96</c:f>
               <c:strCache>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description View business results the week "Employees" app, Edit "Team &amp; Room" Website</c:v>
                 </c:pt>
@@ -1440,7 +1479,7 @@
                   <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Design prototype, sequence, use case description View statistic - report website</c:v>
+                  <c:v>Design prototype, sequence, use case description Delete room website, View room website</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Design prototype, sequence, use case description Import file website</c:v>
@@ -1449,215 +1488,233 @@
                   <c:v>Design prototype, sequence, use case description View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Design prototype, sequence, use case description Add room, Template excel website</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Design prototype, sequence, use case description Edit room</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Design prototype, sequence, use case description View happy birthday app</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Design messages list module 3</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>Design business rule module 3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>Design use case diagram module 3</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>Code Front-end View business results the week "Employees" app and "View personal information" app</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>Code Front-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>Code Front-end  View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>Code Front-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Code Front-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>Code Front-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>Code Front-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>Code Front-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>Code Front-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>Code Front-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>Code Front-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>Code Front-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>Code Front-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>Code Front-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>Code Front-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>Code Front-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>Code Front-end View personal information app</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>Code Front-end View happy birthday app</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>Code Back-end View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>Code Back-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>Code Back-end View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>Code Back-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>Code Back-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>Code Back-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>Code Back-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>Code Back-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>Code Back-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>Code Back-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>Code Back-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>Code Back-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>Code Back-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>Code Back-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>Code Back-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>Code Back-end View personal information app</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
+                  <c:v>Code Back-end View happy birthday app</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>Code Front-end, back-end  "Forgot password" website</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>Code Front-end, back-end  View statistic - report website</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
+                  <c:v>Code Front-end, back-end  "View Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>Code Front-end, back-end  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>Code Front-end, back-end  Export file website</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Code Front-end, back-end Add "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Code Front-end, back-end Edit "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Code Front-end, back-end Delete "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
+                  <c:v>Code Front-end, back-end  Template excel website</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Code Front-end, back-end "Add  Room"</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Code Front-end, back-end "Edit  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Code Front-end, back-end "Delete  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>Test View business results View statistic - report</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
+                  <c:v>Test "View Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Test View personal information app and "Forgot password" website</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>Test  Export file website</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Test  Add "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Test  Edit "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Test  Delete "Team &amp; Room" Website</c:v>
+                <c:pt idx="87">
+                  <c:v>Test  Template excel website</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Test  "Add Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Test  "Edit  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Test  "Delete  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Test  View happy birthday app</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$D$4:$D$90</c:f>
+              <c:f>'Dữ liệu dự án'!$D$4:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43927</c:v>
                 </c:pt>
@@ -1716,205 +1773,223 @@
                   <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43976</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43979</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43976</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43979</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43976</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43976</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43979</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43981</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43984</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43986</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43990</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43993</c:v>
+                <c:pt idx="91">
+                  <c:v>43996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,9 +3484,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$4:$B$90</c:f>
+              <c:f>'Dữ liệu dự án'!$B$4:$B$96</c:f>
               <c:strCache>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>Design prototype, sequence, use case description View business results the week "Employees" app, Edit "Team &amp; Room" Website</c:v>
                 </c:pt>
@@ -3461,7 +3536,7 @@
                   <c:v>Design prototype, sequence, use case description Search compare business results "Rooms" app</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Design prototype, sequence, use case description View statistic - report website</c:v>
+                  <c:v>Design prototype, sequence, use case description Delete room website, View room website</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Design prototype, sequence, use case description Import file website</c:v>
@@ -3470,215 +3545,233 @@
                   <c:v>Design prototype, sequence, use case description View personal information app</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Design prototype, sequence, use case description Add room, Template excel website</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Design prototype, sequence, use case description Edit room</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Design prototype, sequence, use case description View happy birthday app</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Design messages list module 3</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>Design business rule module 3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>Design use case diagram module 3</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>Code Front-end View business results the week "Employees" app and "View personal information" app</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>Code Front-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>Code Front-end  View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>Code Front-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Code Front-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>Code Front-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>Code Front-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>Code Front-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>Code Front-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>Code Front-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>Code Front-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>Code Front-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>Code Front-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>Code Front-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>Code Front-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>Code Front-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>Code Front-end View personal information app</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>Code Front-end View happy birthday app</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>Code Back-end View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>Code Back-end View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>Code Back-end View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>Code Back-end View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>Code Back-end View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>Code Back-end Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>Code Back-end View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>Code Back-end Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>Code Back-end View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>Code Back-end Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>Code Back-end View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>Code Back-end Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>Code Back-end View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>Code Back-end Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>Code Back-end View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>Code Back-end Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>Code Back-end View personal information app</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
+                  <c:v>Code Back-end View happy birthday app</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>Code Front-end, back-end  "Forgot password" website</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>Code Front-end, back-end  View statistic - report website</c:v>
-                </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
+                  <c:v>Code Front-end, back-end  "View Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>Code Front-end, back-end  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>Code Front-end, back-end  Export file website</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Code Front-end, back-end Add "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Code Front-end, back-end Edit "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Code Front-end, back-end Delete "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
+                  <c:v>Code Front-end, back-end  Template excel website</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Code Front-end, back-end "Add  Room"</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Code Front-end, back-end "Edit  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Code Front-end, back-end "Delete  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>Test View business results the week "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="69">
                   <c:v>Test View details of the weekly business results the "Employees"  app</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="70">
                   <c:v>Test View business results the week "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="71">
                   <c:v>Test View business results the week "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="72">
                   <c:v>Test View business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>Test Search business results graph "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="74">
                   <c:v>Test View the "Team" business results graph app</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="75">
                   <c:v>Test Search results graph "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="76">
                   <c:v>Test View business results graph "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="77">
                   <c:v>Test Search business results graph "Room" app</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="78">
                   <c:v>Test View compare business results "Employees"</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>Test Search and compare business results "Employees" app</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>Test View the business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>Test Search and compare business results "Team" app</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="82">
                   <c:v>Test View compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="83">
                   <c:v>Test Search and compare business results "Rooms" app</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>Test View business results View statistic - report</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
+                  <c:v>Test "View Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>Test  Import file website</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="86">
                   <c:v>Test View personal information app and "Forgot password" website</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>Test  Export file website</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Test  Add "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Test  Edit "Team &amp; Room" Website</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Test  Delete "Team &amp; Room" Website</c:v>
+                <c:pt idx="87">
+                  <c:v>Test  Template excel website</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Test  "Add Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Test  "Edit  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Test  "Delete  Room" Website</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Test  View happy birthday app</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$F$4:$F$90</c:f>
+              <c:f>'Dữ liệu dự án'!$F$4:$F$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3734,16 +3827,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2</c:v>
@@ -3755,16 +3848,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -3776,7 +3869,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
@@ -3806,10 +3899,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2</c:v>
@@ -3821,7 +3914,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2</c:v>
@@ -3830,7 +3923,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2</c:v>
@@ -3848,40 +3941,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="62">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="63">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="64">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="67">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2</c:v>
@@ -3890,13 +3983,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2</c:v>
@@ -3905,7 +3998,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2</c:v>
@@ -3917,28 +4010,46 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="89">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="86">
-                  <c:v>198</c:v>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,7 +4339,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$107:$B$111</c:f>
+              <c:f>'Dữ liệu dự án'!$B$113:$B$117</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4251,7 +4362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$107:$C$111</c:f>
+              <c:f>'Dữ liệu dự án'!$C$113:$C$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4481,7 +4592,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$95:$B$98</c:f>
+              <c:f>'Dữ liệu dự án'!$B$101:$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4501,7 +4612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$95:$C$98</c:f>
+              <c:f>'Dữ liệu dự án'!$C$101:$C$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4675,7 +4786,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Dữ liệu dự án'!$B$102:$B$103</c:f>
+              <c:f>'Dữ liệu dự án'!$B$108:$B$109</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4689,7 +4800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dữ liệu dự án'!$C$102:$C$103</c:f>
+              <c:f>'Dữ liệu dự án'!$C$108:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5868,18 +5979,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -5898,16 +6009,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -5926,24 +6037,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="73"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -5958,24 +6069,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="73"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -5990,24 +6101,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="73"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -6022,24 +6133,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="73"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -6054,24 +6165,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="77">
         <v>43556</v>
       </c>
-      <c r="N7" s="75"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -6086,16 +6197,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -6114,16 +6225,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -6142,16 +6253,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -6170,23 +6281,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="76" t="s">
+      <c r="L11" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -6200,16 +6311,16 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
         <v>33</v>
@@ -6236,16 +6347,16 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
         <v>37</v>
@@ -6272,16 +6383,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -6300,16 +6411,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -6328,16 +6439,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -6356,16 +6467,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -6384,16 +6495,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -6412,16 +6523,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -6440,16 +6551,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -33926,10 +34037,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:T157"/>
+  <dimension ref="A2:T163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -33988,7 +34099,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
@@ -34000,7 +34111,7 @@
         <v>43929</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" ref="F4:F73" si="0">E4-D4</f>
+        <f t="shared" ref="F4:F78" si="0">E4-D4</f>
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -34021,7 +34132,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>17</v>
@@ -34120,7 +34231,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>17</v>
@@ -34516,7 +34627,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>17</v>
@@ -34549,7 +34660,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
@@ -34582,7 +34693,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
@@ -34591,11 +34702,11 @@
         <v>43983</v>
       </c>
       <c r="E22" s="10">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="F22:F24" si="1">E22-D22</f>
+        <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>0</v>
@@ -34610,215 +34721,223 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="65">
         <v>20</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="10">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="E23" s="10">
-        <v>43988</v>
+        <v>43985</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="23">
-        <v>18</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="65">
         <v>21</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="10">
-        <v>43990</v>
+        <v>43986</v>
       </c>
       <c r="E24" s="10">
-        <v>43992</v>
+        <v>43988</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <v>18</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="65">
         <v>22</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="10">
-        <v>43993</v>
+        <v>43990</v>
       </c>
       <c r="E25" s="10">
-        <v>43995</v>
+        <v>43991</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="23">
-        <v>18</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="J25" s="23">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
       <c r="A26" s="65">
         <v>23</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>16</v>
+      <c r="B26" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="10">
-        <v>43922</v>
+        <v>43992</v>
       </c>
       <c r="E26" s="10">
-        <v>43924</v>
+        <v>43994</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H26" s="23">
         <v>18</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="23">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
       <c r="A27" s="65">
         <v>24</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>16</v>
+      <c r="B27" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="10">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="E27" s="10">
-        <v>43929</v>
+        <v>43997</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H27" s="23">
         <v>18</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="23">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
       <c r="A28" s="65">
         <v>25</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>16</v>
+      <c r="B28" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="10">
-        <v>43930</v>
+        <v>43998</v>
       </c>
       <c r="E28" s="10">
-        <v>43932</v>
+        <v>44000</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H28" s="23">
         <v>18</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="23">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1">
       <c r="A29" s="65">
         <v>26</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="10">
-        <v>43934</v>
+        <v>43922</v>
       </c>
       <c r="E29" s="10">
-        <v>43935</v>
+        <v>43924</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>23</v>
@@ -34830,24 +34949,24 @@
         <v>27</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="10">
-        <v>43937</v>
+        <v>43927</v>
       </c>
       <c r="E30" s="10">
-        <v>43938</v>
+        <v>43929</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>23</v>
@@ -34859,16 +34978,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="10">
-        <v>43941</v>
+        <v>43930</v>
       </c>
       <c r="E31" s="10">
-        <v>43943</v>
+        <v>43932</v>
       </c>
       <c r="F31" s="24">
         <f t="shared" si="0"/>
@@ -34888,24 +35007,24 @@
         <v>29</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="10">
-        <v>43944</v>
+        <v>43934</v>
       </c>
       <c r="E32" s="10">
-        <v>43946</v>
+        <v>43935</v>
       </c>
       <c r="F32" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>23</v>
@@ -34917,16 +35036,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="10">
-        <v>43948</v>
+        <v>43937</v>
       </c>
       <c r="E33" s="10">
-        <v>43949</v>
+        <v>43938</v>
       </c>
       <c r="F33" s="24">
         <f t="shared" si="0"/>
@@ -34946,16 +35065,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="10">
-        <v>43950</v>
+        <v>43941</v>
       </c>
       <c r="E34" s="10">
-        <v>43952</v>
+        <v>43943</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="0"/>
@@ -34975,16 +35094,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="10">
-        <v>43955</v>
+        <v>43944</v>
       </c>
       <c r="E35" s="10">
-        <v>43957</v>
+        <v>43946</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="0"/>
@@ -35004,24 +35123,24 @@
         <v>33</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="10">
-        <v>43958</v>
+        <v>43948</v>
       </c>
       <c r="E36" s="10">
-        <v>43960</v>
+        <v>43949</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I36" s="31" t="s">
         <v>23</v>
@@ -35033,16 +35152,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="10">
-        <v>43962</v>
+        <v>43950</v>
       </c>
       <c r="E37" s="10">
-        <v>43964</v>
+        <v>43952</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="0"/>
@@ -35062,16 +35181,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="10">
-        <v>43965</v>
+        <v>43955</v>
       </c>
       <c r="E38" s="10">
-        <v>43967</v>
+        <v>43957</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="0"/>
@@ -35091,16 +35210,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="10">
-        <v>43969</v>
+        <v>43958</v>
       </c>
       <c r="E39" s="10">
-        <v>43971</v>
+        <v>43960</v>
       </c>
       <c r="F39" s="24">
         <f t="shared" si="0"/>
@@ -35120,16 +35239,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="10">
-        <v>43972</v>
+        <v>43962</v>
       </c>
       <c r="E40" s="10">
-        <v>43974</v>
+        <v>43964</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="0"/>
@@ -35149,19 +35268,19 @@
         <v>38</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="10">
-        <v>43976</v>
+        <v>43965</v>
       </c>
       <c r="E41" s="10">
-        <v>43978</v>
+        <v>43967</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" ref="F41" si="1">E41-D41</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G41" s="11"/>
@@ -35178,16 +35297,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="10">
-        <v>43979</v>
+        <v>43969</v>
       </c>
       <c r="E42" s="10">
-        <v>43981</v>
+        <v>43971</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="0"/>
@@ -35207,16 +35326,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>18</v>
+        <v>95</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="10">
-        <v>43922</v>
+        <v>43972</v>
       </c>
       <c r="E43" s="10">
-        <v>43924</v>
+        <v>43974</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="0"/>
@@ -35236,19 +35355,19 @@
         <v>41</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D44" s="10">
-        <v>43927</v>
+        <v>43976</v>
       </c>
       <c r="E44" s="10">
-        <v>43929</v>
+        <v>43978</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F44:F45" si="2">E44-D44</f>
         <v>2</v>
       </c>
       <c r="G44" s="11"/>
@@ -35265,19 +35384,19 @@
         <v>42</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>18</v>
+        <v>109</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="10">
-        <v>43930</v>
+        <v>43979</v>
       </c>
       <c r="E45" s="10">
-        <v>43932</v>
+        <v>43981</v>
       </c>
       <c r="F45" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G45" s="11"/>
@@ -35294,27 +35413,27 @@
         <v>43</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D46" s="10">
-        <v>43934</v>
+        <v>43983</v>
       </c>
       <c r="E46" s="10">
-        <v>43935</v>
+        <v>43985</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="23">
-        <v>9</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="J46" s="23"/>
     </row>
@@ -35323,24 +35442,24 @@
         <v>44</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="10">
-        <v>43937</v>
+        <v>43922</v>
       </c>
       <c r="E47" s="10">
-        <v>43938</v>
+        <v>43924</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>23</v>
@@ -35352,16 +35471,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="10">
-        <v>43941</v>
+        <v>43927</v>
       </c>
       <c r="E48" s="10">
-        <v>43943</v>
+        <v>43929</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="0"/>
@@ -35381,16 +35500,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="10">
-        <v>43944</v>
+        <v>43930</v>
       </c>
       <c r="E49" s="10">
-        <v>43946</v>
+        <v>43932</v>
       </c>
       <c r="F49" s="24">
         <f t="shared" si="0"/>
@@ -35410,16 +35529,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="10">
-        <v>43948</v>
+        <v>43934</v>
       </c>
       <c r="E50" s="10">
-        <v>43949</v>
+        <v>43935</v>
       </c>
       <c r="F50" s="24">
         <f t="shared" si="0"/>
@@ -35439,24 +35558,24 @@
         <v>48</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10">
-        <v>43950</v>
+        <v>43937</v>
       </c>
       <c r="E51" s="10">
-        <v>43952</v>
+        <v>43938</v>
       </c>
       <c r="F51" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I51" s="31" t="s">
         <v>23</v>
@@ -35468,16 +35587,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="10">
-        <v>43955</v>
+        <v>43941</v>
       </c>
       <c r="E52" s="10">
-        <v>43957</v>
+        <v>43943</v>
       </c>
       <c r="F52" s="24">
         <f t="shared" si="0"/>
@@ -35497,16 +35616,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="10">
-        <v>43958</v>
+        <v>43944</v>
       </c>
       <c r="E53" s="10">
-        <v>43960</v>
+        <v>43946</v>
       </c>
       <c r="F53" s="24">
         <f t="shared" si="0"/>
@@ -35526,24 +35645,24 @@
         <v>51</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="10">
-        <v>43962</v>
+        <v>43948</v>
       </c>
       <c r="E54" s="10">
-        <v>43964</v>
+        <v>43949</v>
       </c>
       <c r="F54" s="24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>23</v>
@@ -35555,16 +35674,16 @@
         <v>52</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="10">
-        <v>43965</v>
+        <v>43950</v>
       </c>
       <c r="E55" s="10">
-        <v>43967</v>
+        <v>43952</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="0"/>
@@ -35584,16 +35703,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="10">
-        <v>43969</v>
+        <v>43955</v>
       </c>
       <c r="E56" s="10">
-        <v>43971</v>
+        <v>43957</v>
       </c>
       <c r="F56" s="24">
         <f t="shared" si="0"/>
@@ -35613,16 +35732,16 @@
         <v>54</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="10">
-        <v>43972</v>
+        <v>43958</v>
       </c>
       <c r="E57" s="10">
-        <v>43974</v>
+        <v>43960</v>
       </c>
       <c r="F57" s="24">
         <f t="shared" si="0"/>
@@ -35642,16 +35761,16 @@
         <v>55</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C58" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="10">
-        <v>43976</v>
+        <v>43962</v>
       </c>
       <c r="E58" s="10">
-        <v>43978</v>
+        <v>43964</v>
       </c>
       <c r="F58" s="24">
         <f t="shared" si="0"/>
@@ -35671,19 +35790,19 @@
         <v>56</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C59" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="10">
-        <v>43979</v>
+        <v>43965</v>
       </c>
       <c r="E59" s="10">
-        <v>43981</v>
+        <v>43967</v>
       </c>
       <c r="F59" s="24">
-        <f t="shared" ref="F59" si="2">E59-D59</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G59" s="11"/>
@@ -35695,148 +35814,148 @@
       </c>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="16.5" customHeight="1">
       <c r="A60" s="65">
         <v>57</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>19</v>
+        <v>93</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D60" s="10">
-        <v>43922</v>
+        <v>43969</v>
       </c>
       <c r="E60" s="10">
-        <v>43931</v>
+        <v>43971</v>
       </c>
       <c r="F60" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="23">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I60" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="16.5" customHeight="1">
       <c r="A61" s="65">
         <v>58</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="10">
-        <v>43934</v>
+        <v>43972</v>
       </c>
       <c r="E61" s="10">
-        <v>43945</v>
+        <v>43974</v>
       </c>
       <c r="F61" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="23">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I61" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
+    <row r="62" spans="1:10" ht="16.5" customHeight="1">
       <c r="A62" s="65">
         <v>59</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D62" s="10">
-        <v>43948</v>
+        <v>43976</v>
       </c>
       <c r="E62" s="10">
-        <v>43959</v>
+        <v>43978</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" ref="F62:F66" si="3">E62-D62</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="23">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I62" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
+    <row r="63" spans="1:10" ht="16.5" customHeight="1">
       <c r="A63" s="65">
         <v>60</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>19</v>
+        <v>111</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D63" s="10">
-        <v>43960</v>
+        <v>43979</v>
       </c>
       <c r="E63" s="10">
-        <v>43967</v>
+        <v>43981</v>
       </c>
       <c r="F63" s="24">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="23">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I63" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="16.5" customHeight="1">
       <c r="A64" s="65">
         <v>61</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>19</v>
+        <v>123</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="D64" s="10">
-        <v>43969</v>
+        <v>43983</v>
       </c>
       <c r="E64" s="10">
-        <v>43975</v>
+        <v>43985</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" ref="F64" si="3">E64-D64</f>
+        <v>2</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="23">
-        <v>48</v>
-      </c>
-      <c r="I64" s="81" t="s">
-        <v>127</v>
+        <v>14</v>
+      </c>
+      <c r="I64" s="67" t="s">
+        <v>121</v>
       </c>
       <c r="J64" s="23"/>
     </row>
@@ -35845,27 +35964,27 @@
         <v>62</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="10">
-        <v>43976</v>
+        <v>43922</v>
       </c>
       <c r="E65" s="10">
-        <v>43982</v>
+        <v>43931</v>
       </c>
       <c r="F65" s="24">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="23">
-        <v>48</v>
-      </c>
-      <c r="I65" s="81" t="s">
-        <v>127</v>
+        <v>81</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="J65" s="23"/>
     </row>
@@ -35874,27 +35993,27 @@
         <v>63</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D66" s="10">
-        <v>43983</v>
+        <v>43934</v>
       </c>
       <c r="E66" s="10">
-        <v>43992</v>
+        <v>43945</v>
       </c>
       <c r="F66" s="24">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="23">
-        <v>72</v>
-      </c>
-      <c r="I66" s="81" t="s">
-        <v>127</v>
+        <v>99</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="J66" s="23"/>
     </row>
@@ -35902,27 +36021,25 @@
       <c r="A67" s="65">
         <v>64</v>
       </c>
-      <c r="B67" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>20</v>
+      <c r="B67" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D67" s="10">
-        <v>43922</v>
+        <v>43948</v>
       </c>
       <c r="E67" s="10">
-        <v>43924</v>
+        <v>43959</v>
       </c>
       <c r="F67" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" ref="F67:F71" si="4">E67-D67</f>
+        <v>11</v>
+      </c>
+      <c r="G67" s="11"/>
       <c r="H67" s="23">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I67" s="31" t="s">
         <v>23</v>
@@ -35933,123 +36050,115 @@
       <c r="A68" s="65">
         <v>65</v>
       </c>
-      <c r="B68" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>20</v>
+      <c r="B68" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D68" s="10">
-        <v>43927</v>
+        <v>43960</v>
       </c>
       <c r="E68" s="10">
-        <v>43929</v>
+        <v>43967</v>
       </c>
       <c r="F68" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G68" s="11"/>
       <c r="H68" s="23">
-        <v>18</v>
-      </c>
-      <c r="I68" s="31" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="I68" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="65">
         <v>66</v>
       </c>
-      <c r="B69" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>20</v>
+      <c r="B69" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D69" s="10">
-        <v>43930</v>
+        <v>43969</v>
       </c>
       <c r="E69" s="10">
-        <v>43932</v>
+        <v>43975</v>
       </c>
       <c r="F69" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G69" s="11"/>
       <c r="H69" s="23">
-        <v>9</v>
-      </c>
-      <c r="I69" s="31" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I69" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="65">
         <v>67</v>
       </c>
-      <c r="B70" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>20</v>
+      <c r="B70" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D70" s="10">
-        <v>43934</v>
+        <v>43976</v>
       </c>
       <c r="E70" s="10">
-        <v>43935</v>
+        <v>43982</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G70" s="11"/>
       <c r="H70" s="23">
-        <v>9</v>
-      </c>
-      <c r="I70" s="31" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I70" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="65">
         <v>68</v>
       </c>
-      <c r="B71" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>20</v>
+      <c r="B71" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D71" s="10">
-        <v>43937</v>
+        <v>43983</v>
       </c>
       <c r="E71" s="10">
-        <v>43938</v>
+        <v>43992</v>
       </c>
       <c r="F71" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G71" s="11"/>
       <c r="H71" s="23">
-        <v>9</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>23</v>
+        <v>72</v>
+      </c>
+      <c r="I71" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="J71" s="23"/>
     </row>
@@ -36058,16 +36167,16 @@
         <v>69</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="10">
-        <v>43941</v>
+        <v>43922</v>
       </c>
       <c r="E72" s="10">
-        <v>43943</v>
+        <v>43924</v>
       </c>
       <c r="F72" s="24">
         <f t="shared" si="0"/>
@@ -36089,16 +36198,16 @@
         <v>70</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="10">
-        <v>43944</v>
+        <v>43927</v>
       </c>
       <c r="E73" s="10">
-        <v>43946</v>
+        <v>43929</v>
       </c>
       <c r="F73" s="24">
         <f t="shared" si="0"/>
@@ -36120,20 +36229,20 @@
         <v>71</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="10">
-        <v>43948</v>
+        <v>43930</v>
       </c>
       <c r="E74" s="10">
-        <v>43949</v>
+        <v>43932</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" ref="F74:F89" si="4">E74-D74</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>0</v>
@@ -36151,26 +36260,26 @@
         <v>72</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="10">
-        <v>43950</v>
+        <v>43934</v>
       </c>
       <c r="E75" s="10">
-        <v>43952</v>
+        <v>43935</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H75" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I75" s="31" t="s">
         <v>23</v>
@@ -36182,26 +36291,26 @@
         <v>73</v>
       </c>
       <c r="B76" s="63" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="10">
-        <v>43955</v>
+        <v>43937</v>
       </c>
       <c r="E76" s="10">
-        <v>43957</v>
+        <v>43938</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H76" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I76" s="31" t="s">
         <v>23</v>
@@ -36213,19 +36322,19 @@
         <v>74</v>
       </c>
       <c r="B77" s="63" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="10">
-        <v>43958</v>
+        <v>43941</v>
       </c>
       <c r="E77" s="10">
-        <v>43960</v>
+        <v>43943</v>
       </c>
       <c r="F77" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G77" s="11" t="s">
@@ -36244,19 +36353,19 @@
         <v>75</v>
       </c>
       <c r="B78" s="63" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="10">
-        <v>43962</v>
+        <v>43944</v>
       </c>
       <c r="E78" s="10">
-        <v>43964</v>
+        <v>43946</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -36275,26 +36384,26 @@
         <v>76</v>
       </c>
       <c r="B79" s="63" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="10">
-        <v>43965</v>
+        <v>43948</v>
       </c>
       <c r="E79" s="10">
-        <v>43967</v>
+        <v>43949</v>
       </c>
       <c r="F79" s="24">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="F79:F95" si="5">E79-D79</f>
+        <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H79" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I79" s="31" t="s">
         <v>23</v>
@@ -36306,19 +36415,19 @@
         <v>77</v>
       </c>
       <c r="B80" s="63" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="10">
-        <v>43969</v>
+        <v>43950</v>
       </c>
       <c r="E80" s="10">
-        <v>43971</v>
+        <v>43952</v>
       </c>
       <c r="F80" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G80" s="11" t="s">
@@ -36337,19 +36446,19 @@
         <v>78</v>
       </c>
       <c r="B81" s="63" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="10">
-        <v>43972</v>
+        <v>43955</v>
       </c>
       <c r="E81" s="10">
-        <v>43974</v>
+        <v>43957</v>
       </c>
       <c r="F81" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G81" s="11" t="s">
@@ -36368,19 +36477,19 @@
         <v>79</v>
       </c>
       <c r="B82" s="63" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="10">
-        <v>43976</v>
+        <v>43958</v>
       </c>
       <c r="E82" s="10">
-        <v>43978</v>
+        <v>43960</v>
       </c>
       <c r="F82" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G82" s="11" t="s">
@@ -36399,26 +36508,26 @@
         <v>80</v>
       </c>
       <c r="B83" s="63" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="10">
-        <v>43979</v>
+        <v>43962</v>
       </c>
       <c r="E83" s="10">
-        <v>43980</v>
+        <v>43964</v>
       </c>
       <c r="F83" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H83" s="23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I83" s="31" t="s">
         <v>23</v>
@@ -36430,26 +36539,26 @@
         <v>81</v>
       </c>
       <c r="B84" s="63" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="10">
-        <v>43981</v>
+        <v>43965</v>
       </c>
       <c r="E84" s="10">
-        <v>43982</v>
+        <v>43967</v>
       </c>
       <c r="F84" s="24">
-        <f t="shared" ref="F84:F87" si="5">E84-D84</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H84" s="23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I84" s="31" t="s">
         <v>23</v>
@@ -36461,26 +36570,26 @@
         <v>82</v>
       </c>
       <c r="B85" s="63" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="10">
-        <v>43983</v>
+        <v>43969</v>
       </c>
       <c r="E85" s="10">
-        <v>43984</v>
+        <v>43971</v>
       </c>
       <c r="F85" s="24">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I85" s="31" t="s">
         <v>23</v>
@@ -36492,26 +36601,30 @@
         <v>83</v>
       </c>
       <c r="B86" s="63" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="10">
-        <v>43984</v>
+        <v>43972</v>
       </c>
       <c r="E86" s="10">
-        <v>43985</v>
+        <v>43974</v>
       </c>
       <c r="F86" s="24">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G86" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H86" s="23">
-        <v>9</v>
-      </c>
-      <c r="I86" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1">
@@ -36519,26 +36632,30 @@
         <v>84</v>
       </c>
       <c r="B87" s="63" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="10">
-        <v>43986</v>
+        <v>43976</v>
       </c>
       <c r="E87" s="10">
-        <v>43988</v>
+        <v>43978</v>
       </c>
       <c r="F87" s="24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G87" s="11"/>
+      <c r="G87" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H87" s="23">
         <v>18</v>
       </c>
-      <c r="I87" s="31"/>
+      <c r="I87" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="J87" s="23"/>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1">
@@ -36546,24 +36663,26 @@
         <v>85</v>
       </c>
       <c r="B88" s="63" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="10">
-        <v>43990</v>
+        <v>43979</v>
       </c>
       <c r="E88" s="10">
-        <v>43992</v>
+        <v>43980</v>
       </c>
       <c r="F88" s="24">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G88" s="11"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H88" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I88" s="31" t="s">
         <v>23</v>
@@ -36575,24 +36694,26 @@
         <v>86</v>
       </c>
       <c r="B89" s="63" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="10">
-        <v>43993</v>
+        <v>43981</v>
       </c>
       <c r="E89" s="10">
-        <v>43995</v>
+        <v>43982</v>
       </c>
       <c r="F89" s="24">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G89" s="11"/>
+        <f t="shared" ref="F89:F92" si="6">E89-D89</f>
+        <v>1</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="H89" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I89" s="31" t="s">
         <v>23</v>
@@ -36600,92 +36721,210 @@
       <c r="J89" s="23"/>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1">
-      <c r="A90" s="79" t="s">
+      <c r="A90" s="65">
+        <v>87</v>
+      </c>
+      <c r="B90" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="10">
+        <v>43983</v>
+      </c>
+      <c r="E90" s="10">
+        <v>43984</v>
+      </c>
+      <c r="F90" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="23">
+        <v>9</v>
+      </c>
+      <c r="I90" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="23"/>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1">
+      <c r="A91" s="65">
+        <v>88</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="10">
+        <v>43984</v>
+      </c>
+      <c r="E91" s="10">
+        <v>43985</v>
+      </c>
+      <c r="F91" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="23">
+        <v>8</v>
+      </c>
+      <c r="I91" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1">
+      <c r="A92" s="65">
+        <v>89</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="10">
+        <v>43986</v>
+      </c>
+      <c r="E92" s="10">
+        <v>43988</v>
+      </c>
+      <c r="F92" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="23">
+        <v>16</v>
+      </c>
+      <c r="I92" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" ht="15" customHeight="1">
+      <c r="A93" s="65">
+        <v>90</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="10">
+        <v>43990</v>
+      </c>
+      <c r="E93" s="10">
+        <v>43992</v>
+      </c>
+      <c r="F93" s="24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="23">
+        <v>16</v>
+      </c>
+      <c r="I93" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J93" s="23"/>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1">
+      <c r="A94" s="65">
+        <v>91</v>
+      </c>
+      <c r="B94" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="10">
+        <v>43993</v>
+      </c>
+      <c r="E94" s="10">
+        <v>43995</v>
+      </c>
+      <c r="F94" s="24">
+        <f t="shared" ref="F94" si="7">E94-D94</f>
+        <v>2</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="23">
+        <v>16</v>
+      </c>
+      <c r="I94" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J94" s="23"/>
+    </row>
+    <row r="95" spans="1:10" ht="15" customHeight="1">
+      <c r="A95" s="65">
+        <v>92</v>
+      </c>
+      <c r="B95" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="10">
+        <v>43996</v>
+      </c>
+      <c r="E95" s="10">
+        <v>43997</v>
+      </c>
+      <c r="F95" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="23">
+        <v>16</v>
+      </c>
+      <c r="I95" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="J95" s="23"/>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1">
+      <c r="A96" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="80"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="25">
-        <f>SUM(F4:F89)</f>
-        <v>198</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="25">
-        <f>SUM(H4:H89)</f>
-        <v>1752</v>
-      </c>
-      <c r="I90" s="28"/>
-      <c r="J90" s="25">
-        <f>SUM(J4:J89)</f>
-        <v>381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1">
-      <c r="H91" s="4"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1">
-      <c r="H92" s="4"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1">
-      <c r="H93" s="4"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1">
-      <c r="B94" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1">
-      <c r="B95" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1">
-      <c r="B96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="4"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="25">
+        <f>SUM(F4:F95)</f>
+        <v>206</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="25">
+        <f>SUM(H4:H95)</f>
+        <v>1828</v>
+      </c>
+      <c r="I96" s="28"/>
+      <c r="J96" s="25">
+        <f>SUM(J4:J95)</f>
+        <v>397</v>
+      </c>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1">
-      <c r="B97" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="6">
-        <v>0</v>
-      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="29"/>
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1">
-      <c r="B98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="6">
-        <v>0</v>
-      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="29"/>
       <c r="J98" s="4"/>
@@ -36696,230 +36935,216 @@
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1">
+      <c r="B100" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1"/>
       <c r="H100" s="4"/>
       <c r="I100" s="29"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1">
-      <c r="B101" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1"/>
+      <c r="B101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="29"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1">
       <c r="B102" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="29"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1">
       <c r="B103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="29"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1">
+      <c r="B104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="29"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="29"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1">
-      <c r="B106" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="29"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1">
-      <c r="B107" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="17">
-        <v>6</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="B107" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1"/>
       <c r="H107" s="4"/>
       <c r="I107" s="29"/>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1">
-      <c r="B108" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="17">
-        <v>21</v>
-      </c>
+      <c r="B108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="7"/>
       <c r="H108" s="4"/>
       <c r="I108" s="29"/>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1">
-      <c r="B109" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="17">
-        <v>6</v>
-      </c>
+      <c r="B109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="7"/>
       <c r="H109" s="4"/>
       <c r="I109" s="29"/>
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1">
-      <c r="B110" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="17">
-        <v>11</v>
-      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="29"/>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1">
-      <c r="B111" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="17">
-        <v>17</v>
-      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="29"/>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1">
+      <c r="B112" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="29"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="3:20" ht="15" customHeight="1">
+    <row r="113" spans="2:20" ht="15" customHeight="1">
+      <c r="B113" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="17">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="29"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="3:20" ht="15" customHeight="1">
+    <row r="114" spans="2:20" ht="15" customHeight="1">
+      <c r="B114" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="17">
+        <v>21</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="29"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="3:20" ht="15" customHeight="1">
+    <row r="115" spans="2:20" ht="15" customHeight="1">
+      <c r="B115" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="17">
+        <v>6</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="29"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="3:20" ht="15" customHeight="1">
-      <c r="C116" s="8"/>
+    <row r="116" spans="2:20" ht="15" customHeight="1">
+      <c r="B116" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="17">
+        <v>11</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="29"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="3:20" ht="15" customHeight="1"/>
-    <row r="118" spans="3:20" ht="15" customHeight="1"/>
-    <row r="119" spans="3:20" ht="15" customHeight="1"/>
-    <row r="120" spans="3:20" ht="15" customHeight="1"/>
-    <row r="121" spans="3:20" ht="15" customHeight="1"/>
-    <row r="122" spans="3:20" ht="16.5" customHeight="1">
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-    </row>
-    <row r="123" spans="3:20" ht="16.5" customHeight="1">
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-    </row>
-    <row r="124" spans="3:20" ht="16.5" customHeight="1">
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-    </row>
-    <row r="125" spans="3:20" ht="16.5" customHeight="1">
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-    </row>
-    <row r="126" spans="3:20" ht="16.5" customHeight="1">
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-    </row>
-    <row r="127" spans="3:20" ht="16.5" customHeight="1">
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-    </row>
-    <row r="128" spans="3:20" ht="16.5" customHeight="1">
+    <row r="117" spans="2:20" ht="15" customHeight="1">
+      <c r="B117" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="17">
+        <v>17</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:20" ht="15" customHeight="1">
+      <c r="H118" s="4"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:20" ht="15" customHeight="1">
+      <c r="H119" s="4"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:20" ht="15" customHeight="1">
+      <c r="H120" s="4"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="2:20" ht="15" customHeight="1">
+      <c r="H121" s="4"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="2:20" ht="15" customHeight="1">
+      <c r="C122" s="8"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="2:20" ht="15" customHeight="1"/>
+    <row r="124" spans="2:20" ht="15" customHeight="1"/>
+    <row r="125" spans="2:20" ht="15" customHeight="1"/>
+    <row r="126" spans="2:20" ht="15" customHeight="1"/>
+    <row r="127" spans="2:20" ht="15" customHeight="1"/>
+    <row r="128" spans="2:20" ht="16.5" customHeight="1">
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -36931,7 +37156,7 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
     </row>
-    <row r="129" spans="11:20" ht="15" customHeight="1">
+    <row r="129" spans="11:20" ht="16.5" customHeight="1">
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
@@ -36943,7 +37168,7 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
     </row>
-    <row r="130" spans="11:20" ht="15" customHeight="1">
+    <row r="130" spans="11:20" ht="16.5" customHeight="1">
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -36955,7 +37180,7 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
     </row>
-    <row r="131" spans="11:20" ht="15" customHeight="1">
+    <row r="131" spans="11:20" ht="16.5" customHeight="1">
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
@@ -36967,7 +37192,7 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
     </row>
-    <row r="132" spans="11:20" ht="15" customHeight="1">
+    <row r="132" spans="11:20" ht="16.5" customHeight="1">
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -36979,7 +37204,7 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
     </row>
-    <row r="133" spans="11:20" ht="15" customHeight="1">
+    <row r="133" spans="11:20" ht="16.5" customHeight="1">
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -36991,7 +37216,7 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
     </row>
-    <row r="134" spans="11:20" ht="15" customHeight="1">
+    <row r="134" spans="11:20" ht="16.5" customHeight="1">
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -37219,7 +37444,7 @@
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
     </row>
-    <row r="153" spans="11:20">
+    <row r="153" spans="11:20" ht="15" customHeight="1">
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
@@ -37231,7 +37456,7 @@
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
     </row>
-    <row r="154" spans="11:20">
+    <row r="154" spans="11:20" ht="15" customHeight="1">
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -37243,7 +37468,7 @@
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
     </row>
-    <row r="155" spans="11:20">
+    <row r="155" spans="11:20" ht="15" customHeight="1">
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -37255,7 +37480,7 @@
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
     </row>
-    <row r="156" spans="11:20">
+    <row r="156" spans="11:20" ht="15" customHeight="1">
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
@@ -37267,7 +37492,7 @@
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="11:20">
+    <row r="157" spans="11:20" ht="15" customHeight="1">
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
@@ -37279,16 +37504,88 @@
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
     </row>
+    <row r="158" spans="11:20" ht="15" customHeight="1">
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+    </row>
+    <row r="159" spans="11:20">
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+    </row>
+    <row r="160" spans="11:20">
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+    </row>
+    <row r="161" spans="11:20">
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+    </row>
+    <row r="162" spans="11:20">
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="4"/>
+      <c r="S162" s="4"/>
+      <c r="T162" s="4"/>
+    </row>
+    <row r="163" spans="11:20">
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A96:B96"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25 C67:C89" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C28 C72:C95" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Đạt Huỳnh, Anh Minh, Quang Vương, Quốc Nhân, Như Phương"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I89" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I95" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Cao, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
